--- a/datasheets/ALL Funded ARCHES Projects.xlsx
+++ b/datasheets/ALL Funded ARCHES Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinho\Documents\UIUC\ARCHES\Github\datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4B4EF0-AB55-4CA6-B4DC-2F8802950CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE38229-157D-41A7-A5C3-C457B058471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="1002">
   <si>
     <t>Year</t>
   </si>
@@ -648,9 +648,6 @@
     <t>Nadia Shaikh</t>
   </si>
   <si>
-    <t>Sara Krzyzankiak</t>
-  </si>
-  <si>
     <t>Teresa Riech</t>
   </si>
   <si>
@@ -1029,9 +1026,6 @@
     <t>Autonomous Morphing Bed Mattress for ALS patients with Limited Movement Ability</t>
   </si>
   <si>
-    <t>Deana McDonaugh</t>
-  </si>
-  <si>
     <t>Mahshid Mansouri</t>
   </si>
   <si>
@@ -1221,9 +1215,6 @@
     <t>Rapid , Contactless Vital Signs Collection Using Computer Vision and Consumer Technologies</t>
   </si>
   <si>
-    <t>Harris Nissar</t>
-  </si>
-  <si>
     <t xml:space="preserve">54 7 </t>
   </si>
   <si>
@@ -3073,6 +3064,9 @@
   </si>
   <si>
     <t>Joseph Irudayaraj</t>
+  </si>
+  <si>
+    <t>Sara Krzyzaniak</t>
   </si>
 </sst>
 </file>
@@ -4539,8 +4533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4654,7 +4648,7 @@
         <v>27</v>
       </c>
       <c r="AC1" s="108" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4668,7 +4662,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>29</v>
@@ -4711,7 +4705,7 @@
         <v>35</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4820,7 +4814,7 @@
         <v>47</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="5" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4837,7 +4831,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>50</v>
@@ -4877,7 +4871,7 @@
         <v>53</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4931,7 +4925,7 @@
         <v>58</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="7" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4951,7 +4945,7 @@
         <v>60</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>61</v>
@@ -4985,7 +4979,7 @@
         <v>62</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5036,7 +5030,7 @@
         <v>67</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="9" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5093,7 +5087,7 @@
         <v>73</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5153,7 +5147,7 @@
         <v>35</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5216,7 +5210,7 @@
         <v>83</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="12" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5279,7 +5273,7 @@
         <v>89</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5336,7 +5330,7 @@
         <v>95</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5365,7 +5359,7 @@
         <v>49976</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="T14" s="103" t="s">
         <v>33</v>
@@ -5393,7 +5387,7 @@
         <v>100</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="15" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5453,7 +5447,7 @@
         <v>106</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5565,7 +5559,7 @@
         <v>112</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="18" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5594,7 +5588,7 @@
         <v>34250</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T18" s="103" t="s">
         <v>40</v>
@@ -5622,7 +5616,7 @@
         <v>116</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5688,7 +5682,7 @@
         <v>125</v>
       </c>
       <c r="AC19" s="13" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5745,7 +5739,7 @@
         <v>131</v>
       </c>
       <c r="AC20" s="13" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5811,7 +5805,7 @@
         <v>138</v>
       </c>
       <c r="AC21" s="13" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -5868,7 +5862,7 @@
         <v>141</v>
       </c>
       <c r="AC22" s="132" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5931,7 +5925,7 @@
         <v>147</v>
       </c>
       <c r="AC23" s="13" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5994,7 +5988,7 @@
         <v>83</v>
       </c>
       <c r="AC24" s="13" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6048,7 +6042,7 @@
         <v>95</v>
       </c>
       <c r="AC25" s="13" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="26" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6113,7 +6107,7 @@
         <v>58</v>
       </c>
       <c r="AC26" s="13" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="27" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6180,7 +6174,7 @@
         <v>58</v>
       </c>
       <c r="AC27" s="13" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="28" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6200,7 +6194,7 @@
         <v>159</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>160</v>
@@ -6245,7 +6239,7 @@
         <v>161</v>
       </c>
       <c r="AC28" s="132" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="29" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6318,7 +6312,7 @@
         <v>138</v>
       </c>
       <c r="AC29" s="13" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="30" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6389,7 +6383,7 @@
         <v>167</v>
       </c>
       <c r="AC30" s="13" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="31" spans="1:29" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -6462,7 +6456,7 @@
         <v>174</v>
       </c>
       <c r="AC31" s="13" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="32" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6491,7 +6485,7 @@
         <v>49953</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>179</v>
@@ -6537,7 +6531,7 @@
         <v>182</v>
       </c>
       <c r="AC32" s="13" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="33" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6606,7 +6600,7 @@
         <v>187</v>
       </c>
       <c r="AC33" s="13" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="34" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6679,7 +6673,7 @@
         <v>192</v>
       </c>
       <c r="AC34" s="13" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="35" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6732,10 +6726,10 @@
         <v>201</v>
       </c>
       <c r="Q35" s="12" t="s">
+        <v>1001</v>
+      </c>
+      <c r="R35" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="R35" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="S35" s="13"/>
       <c r="T35" s="103" t="s">
@@ -6763,10 +6757,10 @@
         <v>44592</v>
       </c>
       <c r="AB35" s="124" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AC35" s="13" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="36" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6780,28 +6774,28 @@
         <v>28</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H36" s="7">
         <v>61533</v>
       </c>
       <c r="I36" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J36" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="K36" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="L36" s="13"/>
       <c r="M36" s="12"/>
@@ -6839,7 +6833,7 @@
         <v>35</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6853,16 +6847,16 @@
         <v>28</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="F37" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="H37" s="7">
         <v>81568</v>
@@ -6871,22 +6865,22 @@
         <v>159</v>
       </c>
       <c r="J37" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="K37" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>127</v>
       </c>
       <c r="M37" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="N37" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="N37" s="12" t="s">
+      <c r="O37" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
@@ -6914,13 +6908,13 @@
         <v>34</v>
       </c>
       <c r="AA37" s="126" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB37" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="AB37" s="124" t="s">
-        <v>219</v>
-      </c>
       <c r="AC37" s="132" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6934,7 +6928,7 @@
         <v>28</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>119</v>
@@ -6943,7 +6937,7 @@
         <v>124</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H38" s="7">
         <v>75000</v>
@@ -6952,7 +6946,7 @@
         <v>123</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
@@ -6991,7 +6985,7 @@
         <v>141</v>
       </c>
       <c r="AC38" s="13" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="39" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -7005,25 +6999,25 @@
         <v>28</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="F39" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="G39" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="H39" s="7">
         <v>50000</v>
       </c>
       <c r="I39" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="J39" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="K39" s="13"/>
       <c r="L39" s="12"/>
@@ -7059,10 +7053,10 @@
         <v>44377</v>
       </c>
       <c r="AB39" s="124" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AC39" s="13" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="40" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -7076,16 +7070,16 @@
         <v>28</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H40" s="7">
         <v>69906</v>
@@ -7128,10 +7122,10 @@
         <v>44255</v>
       </c>
       <c r="AB40" s="124" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AC40" s="13" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="41" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -7145,7 +7139,7 @@
         <v>28</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>70</v>
@@ -7154,16 +7148,16 @@
         <v>56</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H41" s="7">
         <v>124516</v>
       </c>
       <c r="I41" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J41" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>237</v>
       </c>
       <c r="K41" s="13"/>
       <c r="L41" s="12"/>
@@ -7199,10 +7193,10 @@
         <v>44592</v>
       </c>
       <c r="AB41" s="124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AC41" s="13" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7213,22 +7207,22 @@
         <v>28</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>169</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H42" s="3">
         <v>74957</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>44</v>
@@ -7267,10 +7261,10 @@
         <v>44592</v>
       </c>
       <c r="AB42" s="124" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AC42" s="133" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7281,25 +7275,25 @@
         <v>28</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F43" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="H43" s="3">
         <v>70548.34</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="12"/>
@@ -7335,10 +7329,10 @@
         <v>44408</v>
       </c>
       <c r="AB43" s="124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AC43" s="15" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7349,28 +7343,28 @@
         <v>28</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F44" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="H44" s="3">
         <v>74536</v>
       </c>
       <c r="I44" s="134" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J44" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>252</v>
       </c>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
@@ -7405,10 +7399,10 @@
         <v>44592</v>
       </c>
       <c r="AB44" s="124" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AC44" s="15" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7419,28 +7413,28 @@
         <v>28</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="F45" s="12" t="s">
+      <c r="G45" s="16" t="s">
         <v>255</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>256</v>
       </c>
       <c r="H45" s="3">
         <v>75000.100000000006</v>
       </c>
       <c r="I45" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J45" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="K45" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>259</v>
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="12"/>
@@ -7472,10 +7466,10 @@
         <v>33</v>
       </c>
       <c r="AA45" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB45" s="124" t="s">
         <v>260</v>
-      </c>
-      <c r="AB45" s="124" t="s">
-        <v>261</v>
       </c>
       <c r="AC45" s="15"/>
     </row>
@@ -7484,31 +7478,31 @@
         <v>2020</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="H46" s="3">
         <v>74960.2</v>
       </c>
       <c r="I46" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J46" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="J46" s="12" t="s">
-        <v>266</v>
-      </c>
       <c r="K46" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
@@ -7543,10 +7537,10 @@
         <v>44592</v>
       </c>
       <c r="AB46" s="124" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AC46" s="15" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7557,31 +7551,31 @@
         <v>28</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H47" s="3">
         <v>74536</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J47" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="K47" s="12" t="s">
-        <v>271</v>
-      </c>
       <c r="L47" s="12" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M47" s="12" t="s">
         <v>92</v>
@@ -7617,10 +7611,10 @@
         <v>44592</v>
       </c>
       <c r="AB47" s="124" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AC47" s="15" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7631,22 +7625,22 @@
         <v>28</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>159</v>
       </c>
       <c r="F48" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="H48" s="3">
         <v>75000.5</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J48" s="15"/>
       <c r="K48" s="12"/>
@@ -7683,10 +7677,10 @@
         <v>44592</v>
       </c>
       <c r="AB48" s="124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AC48" s="15" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7697,22 +7691,22 @@
         <v>28</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>280</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>184</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H49" s="3">
         <v>50000</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J49" s="15"/>
       <c r="K49" s="12"/>
@@ -7747,10 +7741,10 @@
       </c>
       <c r="AA49" s="15"/>
       <c r="AB49" s="124" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AC49" s="15" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7761,16 +7755,16 @@
         <v>28</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>150</v>
       </c>
       <c r="F50" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="H50" s="3">
         <v>75000</v>
@@ -7811,10 +7805,10 @@
         <v>44592</v>
       </c>
       <c r="AB50" s="124" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC50" s="15" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7825,28 +7819,28 @@
         <v>28</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>288</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>289</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>92</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H51" s="3">
         <v>75000</v>
       </c>
       <c r="I51" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="J51" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="J51" s="15" t="s">
+      <c r="K51" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
@@ -7881,10 +7875,10 @@
         <v>44592</v>
       </c>
       <c r="AB51" s="124" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AC51" s="15" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7895,31 +7889,31 @@
         <v>28</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" s="12" t="s">
+      <c r="G52" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="H52" s="3">
         <v>51324</v>
       </c>
       <c r="I52" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="J52" s="12" t="s">
         <v>298</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>299</v>
       </c>
       <c r="K52" s="12" t="s">
         <v>56</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
@@ -7953,10 +7947,10 @@
         <v>44592</v>
       </c>
       <c r="AB52" s="124" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AC52" s="15" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7967,28 +7961,28 @@
         <v>28</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="F53" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="G53" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="H53" s="3">
         <v>74953</v>
       </c>
       <c r="I53" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="J53" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="J53" s="15" t="s">
+      <c r="K53" s="12" t="s">
         <v>307</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>308</v>
       </c>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
@@ -8023,10 +8017,10 @@
         <v>44459</v>
       </c>
       <c r="AB53" s="124" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC53" s="15" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8037,28 +8031,28 @@
         <v>28</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H54" s="3">
         <v>60346</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J54" s="12" t="s">
         <v>189</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L54" s="15"/>
       <c r="M54" s="12"/>
@@ -8093,10 +8087,10 @@
         <v>44592</v>
       </c>
       <c r="AB54" s="124" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC54" s="15" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8107,25 +8101,25 @@
         <v>28</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>315</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>92</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H55" s="3">
         <v>66100</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
@@ -8161,10 +8155,10 @@
         <v>44592</v>
       </c>
       <c r="AB55" s="124" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC55" s="15" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8175,31 +8169,31 @@
         <v>28</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F56" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="H56" s="3">
         <v>75000</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J56" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="L56" s="12" t="s">
         <v>322</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>324</v>
       </c>
       <c r="M56" s="15"/>
       <c r="N56" s="12"/>
@@ -8233,42 +8227,42 @@
         <v>44592</v>
       </c>
       <c r="AB56" s="124" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AC56" s="15" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F57" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="G57" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="H57" s="3">
         <v>30000</v>
       </c>
       <c r="I57" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>331</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>333</v>
       </c>
       <c r="L57" s="15"/>
       <c r="M57" s="12"/>
@@ -8303,42 +8297,42 @@
         <v>44227</v>
       </c>
       <c r="AB57" s="124" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AC57" s="15" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="H58" s="3">
         <v>49937</v>
       </c>
       <c r="I58" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="K58" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>340</v>
       </c>
       <c r="L58" s="15"/>
       <c r="M58" s="12"/>
@@ -8370,42 +8364,42 @@
         <v>33</v>
       </c>
       <c r="AA58" s="116" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AB58" s="124" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC58" s="15" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="H59" s="3">
         <v>31998.45</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
@@ -8441,42 +8435,42 @@
         <v>44227</v>
       </c>
       <c r="AB59" s="124" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AC59" s="15" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D60" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="G60" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="H60" s="3">
         <v>47149</v>
       </c>
       <c r="I60" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="K60" s="12" t="s">
         <v>353</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>355</v>
       </c>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
@@ -8509,36 +8503,36 @@
       </c>
       <c r="AA60" s="15"/>
       <c r="AB60" s="124" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AC60" s="15" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H61" s="3">
         <v>60000</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J61" s="15"/>
       <c r="K61" s="12"/>
@@ -8573,39 +8567,39 @@
       </c>
       <c r="AA61" s="15"/>
       <c r="AB61" s="124" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AC61" s="15" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F62" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="G62" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="H62" s="3">
         <v>32000</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K62" s="15"/>
       <c r="L62" s="12"/>
@@ -8641,36 +8635,36 @@
         <v>44227</v>
       </c>
       <c r="AB62" s="124" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AC62" s="15" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="F63" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="G63" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="H63" s="3">
         <v>45004</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J63" s="15"/>
       <c r="K63" s="12"/>
@@ -8707,36 +8701,36 @@
         <v>44227</v>
       </c>
       <c r="AB63" s="124" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AC63" s="15" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="G64" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="H64" s="3">
         <v>15000</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
@@ -8773,39 +8767,39 @@
         <v>44074</v>
       </c>
       <c r="AB64" s="124" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AC64" s="133" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>85</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H65" s="3">
         <v>47050</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
@@ -8841,42 +8835,42 @@
         <v>44592</v>
       </c>
       <c r="AB65" s="124" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AC65" s="15" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H66" s="3">
         <v>35000</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>386</v>
+        <v>668</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
@@ -8911,21 +8905,21 @@
         <v>44592</v>
       </c>
       <c r="AB66" s="124" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AC66" s="15" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>56</v>
@@ -8934,16 +8928,16 @@
         <v>70</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H67" s="3">
         <v>10000</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K67" s="15"/>
       <c r="L67" s="12"/>
@@ -8979,39 +8973,39 @@
         <v>44074</v>
       </c>
       <c r="AB67" s="124" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AC67" s="15" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D68" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="H68" s="3">
         <v>60000</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K68" s="15"/>
       <c r="L68" s="12"/>
@@ -9047,36 +9041,36 @@
         <v>44377</v>
       </c>
       <c r="AB68" s="124" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AC68" s="15" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H69" s="3">
         <v>50000</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J69" s="15"/>
       <c r="K69" s="12"/>
@@ -9113,42 +9107,42 @@
         <v>44592</v>
       </c>
       <c r="AB69" s="124" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AC69" s="15" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H70" s="3">
         <v>60000</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L70" s="15"/>
       <c r="M70" s="12"/>
@@ -9183,42 +9177,42 @@
         <v>44227</v>
       </c>
       <c r="AB70" s="124" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AC70" s="15" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="H71" s="3">
         <v>55000</v>
       </c>
       <c r="I71" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="J71" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="J71" s="12" t="s">
-        <v>410</v>
-      </c>
       <c r="K71" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
@@ -9253,57 +9247,57 @@
         <v>44596</v>
       </c>
       <c r="AB71" s="124" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AC71" s="15" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H72" s="3">
         <v>48634</v>
       </c>
       <c r="I72" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="N72" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="J72" s="12" t="s">
+      <c r="O72" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="K72" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="L72" s="12" t="s">
+      <c r="P72" s="12" t="s">
         <v>418</v>
-      </c>
-      <c r="M72" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="N72" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="O72" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="P72" s="12" t="s">
-        <v>421</v>
       </c>
       <c r="Q72" s="12" t="s">
         <v>122</v>
@@ -9335,39 +9329,39 @@
         <v>44469</v>
       </c>
       <c r="AB72" s="124" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AC72" s="15" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H73" s="3">
         <v>49460</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
@@ -9403,10 +9397,10 @@
         <v>44227</v>
       </c>
       <c r="AB73" s="124" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AC73" s="15" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9417,31 +9411,31 @@
         <v>28</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="H74" s="3">
         <v>75000</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J74" s="12" t="s">
         <v>70</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M74" s="15"/>
       <c r="N74" s="12"/>
@@ -9475,10 +9469,10 @@
         <v>44616</v>
       </c>
       <c r="AB74" s="124" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AC74" s="15" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9489,7 +9483,7 @@
         <v>28</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>97</v>
@@ -9498,22 +9492,22 @@
         <v>29</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H75" s="3">
         <v>75000</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M75" s="15"/>
       <c r="N75" s="12"/>
@@ -9547,10 +9541,10 @@
         <v>44616</v>
       </c>
       <c r="AB75" s="124" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AC75" s="15" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9561,22 +9555,22 @@
         <v>28</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>176</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H76" s="3">
         <v>75000</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J76" s="12" t="s">
         <v>180</v>
@@ -9585,7 +9579,7 @@
         <v>181</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M76" s="15"/>
       <c r="N76" s="12"/>
@@ -9619,10 +9613,10 @@
         <v>44616</v>
       </c>
       <c r="AB76" s="124" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AC76" s="15" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9633,29 +9627,29 @@
         <v>28</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>81</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H77" s="3">
         <v>75000</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K77" s="15"/>
       <c r="L77" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
@@ -9689,10 +9683,10 @@
         <v>44616</v>
       </c>
       <c r="AB77" s="124" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AC77" s="133" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9703,7 +9697,7 @@
         <v>28</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>56</v>
@@ -9712,19 +9706,19 @@
         <v>70</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H78" s="3">
         <v>73926</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L78" s="15"/>
       <c r="M78" s="12"/>
@@ -9759,10 +9753,10 @@
         <v>44616</v>
       </c>
       <c r="AB78" s="124" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AC78" s="15" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9773,7 +9767,7 @@
         <v>28</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>176</v>
@@ -9782,23 +9776,23 @@
         <v>181</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H79" s="3">
         <v>75000</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J79" s="12" t="s">
         <v>180</v>
       </c>
       <c r="K79" s="15"/>
       <c r="L79" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="M79" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="M79" s="12" t="s">
-        <v>443</v>
       </c>
       <c r="N79" s="12"/>
       <c r="O79" s="12"/>
@@ -9834,7 +9828,7 @@
         <v>182</v>
       </c>
       <c r="AC79" s="15" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9845,16 +9839,16 @@
         <v>28</v>
       </c>
       <c r="D80" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="H80" s="3">
         <v>74895</v>
@@ -9863,10 +9857,10 @@
         <v>81</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L80" s="15"/>
       <c r="M80" s="12"/>
@@ -9901,10 +9895,10 @@
         <v>44616</v>
       </c>
       <c r="AB80" s="124" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AC80" s="15" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9915,16 +9909,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>92</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H81" s="3">
         <v>75000</v>
@@ -9965,10 +9959,10 @@
         <v>44616</v>
       </c>
       <c r="AB81" s="124" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AC81" s="15" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="82" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9979,22 +9973,22 @@
         <v>28</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H82" s="3">
         <v>74086</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J82" s="15"/>
       <c r="K82" s="12"/>
@@ -10031,10 +10025,10 @@
         <v>44616</v>
       </c>
       <c r="AB82" s="124" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AC82" s="15" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="83" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10045,34 +10039,34 @@
         <v>28</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H83" s="3">
         <v>74999.509999999995</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="N83" s="15"/>
       <c r="O83" s="12"/>
@@ -10105,10 +10099,10 @@
         <v>44616</v>
       </c>
       <c r="AB83" s="124" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AC83" s="15" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10119,16 +10113,16 @@
         <v>28</v>
       </c>
       <c r="D84" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="H84" s="3">
         <v>72088.37</v>
@@ -10137,13 +10131,13 @@
         <v>92</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M84" s="12"/>
       <c r="N84" s="15"/>
@@ -10177,10 +10171,10 @@
         <v>44616</v>
       </c>
       <c r="AB84" s="124" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AC84" s="15" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="85" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10191,22 +10185,22 @@
         <v>28</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H85" s="3">
         <v>75000</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J85" s="15"/>
       <c r="K85" s="12"/>
@@ -10240,13 +10234,13 @@
         <v>34</v>
       </c>
       <c r="AA85" s="116" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AB85" s="124" t="s">
         <v>100</v>
       </c>
       <c r="AC85" s="15" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="86" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10257,16 +10251,16 @@
         <v>28</v>
       </c>
       <c r="D86" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="H86" s="3">
         <v>74836</v>
@@ -10275,7 +10269,7 @@
         <v>119</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K86" s="15"/>
       <c r="L86" s="12"/>
@@ -10311,10 +10305,10 @@
         <v>44616</v>
       </c>
       <c r="AB86" s="124" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AC86" s="133" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="87" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10326,25 +10320,25 @@
         <v>68</v>
       </c>
       <c r="D87" s="109" t="s">
+        <v>493</v>
+      </c>
+      <c r="E87" t="s">
+        <v>494</v>
+      </c>
+      <c r="F87" s="119" t="s">
+        <v>495</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="E87" t="s">
-        <v>497</v>
-      </c>
-      <c r="F87" s="119" t="s">
-        <v>498</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="H87" s="107">
         <v>74992</v>
       </c>
       <c r="I87" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J87" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K87" s="15"/>
       <c r="L87" s="15"/>
@@ -10380,10 +10374,10 @@
         <v>44294</v>
       </c>
       <c r="AB87" s="15" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AC87" s="15" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10395,22 +10389,22 @@
         <v>68</v>
       </c>
       <c r="D88" s="109" t="s">
+        <v>499</v>
+      </c>
+      <c r="E88" t="s">
+        <v>500</v>
+      </c>
+      <c r="F88" s="120" t="s">
+        <v>501</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="E88" t="s">
-        <v>503</v>
-      </c>
-      <c r="F88" s="120" t="s">
-        <v>504</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="H88" s="107">
         <v>74973</v>
       </c>
       <c r="I88" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
@@ -10447,10 +10441,10 @@
         <v>44294</v>
       </c>
       <c r="AB88" s="15" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AC88" s="15" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="89" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10462,28 +10456,28 @@
         <v>68</v>
       </c>
       <c r="D89" s="109" t="s">
+        <v>504</v>
+      </c>
+      <c r="E89" t="s">
+        <v>505</v>
+      </c>
+      <c r="F89" s="119" t="s">
+        <v>506</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="E89" t="s">
-        <v>508</v>
-      </c>
-      <c r="F89" s="119" t="s">
-        <v>509</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="H89" s="107">
         <v>35000</v>
       </c>
       <c r="I89" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J89" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K89" s="121" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
@@ -10518,10 +10512,10 @@
         <v>44294</v>
       </c>
       <c r="AB89" s="15" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="AC89" s="133" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="90" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10533,37 +10527,37 @@
         <v>68</v>
       </c>
       <c r="D90" s="109" t="s">
+        <v>510</v>
+      </c>
+      <c r="E90" t="s">
+        <v>511</v>
+      </c>
+      <c r="F90" s="122" t="s">
+        <v>512</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="E90" t="s">
-        <v>514</v>
-      </c>
-      <c r="F90" s="122" t="s">
-        <v>515</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="H90" s="107">
         <v>33117</v>
       </c>
       <c r="I90" t="s">
+        <v>514</v>
+      </c>
+      <c r="J90" t="s">
+        <v>515</v>
+      </c>
+      <c r="K90" s="121" t="s">
+        <v>516</v>
+      </c>
+      <c r="L90" s="121" t="s">
         <v>517</v>
       </c>
-      <c r="J90" t="s">
+      <c r="M90" s="121" t="s">
         <v>518</v>
       </c>
-      <c r="K90" s="121" t="s">
+      <c r="N90" s="121" t="s">
         <v>519</v>
-      </c>
-      <c r="L90" s="121" t="s">
-        <v>520</v>
-      </c>
-      <c r="M90" s="121" t="s">
-        <v>521</v>
-      </c>
-      <c r="N90" s="121" t="s">
-        <v>522</v>
       </c>
       <c r="O90" s="15"/>
       <c r="P90" s="15"/>
@@ -10595,10 +10589,10 @@
         <v>44294</v>
       </c>
       <c r="AB90" s="15" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="AC90" s="15" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="91" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10610,28 +10604,28 @@
         <v>68</v>
       </c>
       <c r="D91" s="109" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E91" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F91" s="110" t="s">
         <v>119</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H91" s="107">
         <v>75000</v>
       </c>
       <c r="I91" s="119" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J91" s="119" t="s">
         <v>38</v>
       </c>
       <c r="K91" s="119" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L91" t="s">
         <v>92</v>
@@ -10668,10 +10662,10 @@
         <v>44294</v>
       </c>
       <c r="AB91" s="15" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="AC91" s="15" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="92" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10683,16 +10677,16 @@
         <v>68</v>
       </c>
       <c r="D92" s="109" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E92" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F92" s="119" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H92" s="107">
         <v>36572</v>
@@ -10701,7 +10695,7 @@
         <v>92</v>
       </c>
       <c r="J92" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K92" s="15"/>
       <c r="L92" s="15"/>
@@ -10737,10 +10731,10 @@
         <v>44294</v>
       </c>
       <c r="AB92" s="15" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="AC92" s="15" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="93" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10752,28 +10746,28 @@
         <v>68</v>
       </c>
       <c r="D93" s="109" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E93" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F93" s="119" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H93" s="107">
         <v>75000</v>
       </c>
       <c r="I93" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J93" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="K93" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L93" s="15"/>
       <c r="M93" s="15"/>
@@ -10808,10 +10802,10 @@
         <v>44294</v>
       </c>
       <c r="AB93" s="15" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="AC93" s="15" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
@@ -10821,14 +10815,14 @@
       <c r="B94" s="108"/>
       <c r="C94" s="117"/>
       <c r="D94" s="109" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E94" s="110" t="s">
         <v>133</v>
       </c>
       <c r="F94" s="110"/>
       <c r="G94" s="117" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="H94" s="131">
         <v>49941</v>
@@ -10854,7 +10848,7 @@
       <c r="AA94" s="15"/>
       <c r="AB94" s="15"/>
       <c r="AC94" s="15" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.25">
@@ -10864,14 +10858,14 @@
       <c r="B95" s="108"/>
       <c r="C95" s="117"/>
       <c r="D95" s="109" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E95" s="110" t="s">
         <v>70</v>
       </c>
       <c r="F95" s="110"/>
       <c r="G95" s="117" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="H95" s="131">
         <v>48581</v>
@@ -10897,7 +10891,7 @@
       <c r="AA95" s="15"/>
       <c r="AB95" s="15"/>
       <c r="AC95" s="15" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
@@ -10908,11 +10902,11 @@
       <c r="C96" s="117"/>
       <c r="D96" s="109"/>
       <c r="E96" s="110" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="F96" s="110"/>
       <c r="G96" s="117" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="H96" s="131">
         <v>49362</v>
@@ -10974,31 +10968,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="128" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C1" s="128">
         <v>15</v>
       </c>
       <c r="D1" s="128" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E1" s="128">
         <v>29</v>
       </c>
       <c r="F1" s="128" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="G1" s="128">
         <v>43</v>
       </c>
       <c r="H1" s="128" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="I1" s="128">
         <v>57</v>
       </c>
       <c r="J1" s="128" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -11006,31 +11000,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="128" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C2" s="128">
         <v>16</v>
       </c>
       <c r="D2" s="128" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E2" s="128">
         <v>30</v>
       </c>
       <c r="F2" s="128" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G2" s="128">
         <v>44</v>
       </c>
       <c r="H2" s="128" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I2" s="128">
         <v>58</v>
       </c>
       <c r="J2" s="128" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -11038,25 +11032,25 @@
         <v>3</v>
       </c>
       <c r="B3" s="128" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C3" s="128">
         <v>17</v>
       </c>
       <c r="D3" s="128" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E3" s="128">
         <v>31</v>
       </c>
       <c r="F3" s="128" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="G3" s="128">
         <v>45</v>
       </c>
       <c r="H3" s="128" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="I3" s="129"/>
       <c r="J3" s="129"/>
@@ -11066,25 +11060,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="128" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C4" s="128">
         <v>18</v>
       </c>
       <c r="D4" s="128" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E4" s="128">
         <v>32</v>
       </c>
       <c r="F4" s="128" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G4" s="128">
         <v>46</v>
       </c>
       <c r="H4" s="128" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="I4" s="129"/>
       <c r="J4" s="129"/>
@@ -11094,25 +11088,25 @@
         <v>5</v>
       </c>
       <c r="B5" s="128" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C5" s="128">
         <v>19</v>
       </c>
       <c r="D5" s="128" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E5" s="128">
         <v>33</v>
       </c>
       <c r="F5" s="128" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="G5" s="128">
         <v>47</v>
       </c>
       <c r="H5" s="128" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I5" s="129"/>
       <c r="J5" s="129"/>
@@ -11122,25 +11116,25 @@
         <v>6</v>
       </c>
       <c r="B6" s="128" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C6" s="128">
         <v>20</v>
       </c>
       <c r="D6" s="128" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E6" s="128">
         <v>34</v>
       </c>
       <c r="F6" s="128" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="G6" s="128">
         <v>48</v>
       </c>
       <c r="H6" s="128" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="I6" s="129"/>
       <c r="J6" s="129"/>
@@ -11150,25 +11144,25 @@
         <v>7</v>
       </c>
       <c r="B7" s="128" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C7" s="128">
         <v>21</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E7" s="128">
         <v>35</v>
       </c>
       <c r="F7" s="128" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G7" s="128">
         <v>49</v>
       </c>
       <c r="H7" s="128" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="I7" s="129"/>
       <c r="J7" s="129"/>
@@ -11178,25 +11172,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="128" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C8" s="128">
         <v>22</v>
       </c>
       <c r="D8" s="128" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E8" s="128">
         <v>36</v>
       </c>
       <c r="F8" s="128" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="G8" s="128">
         <v>50</v>
       </c>
       <c r="H8" s="128" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I8" s="129"/>
       <c r="J8" s="129"/>
@@ -11206,25 +11200,25 @@
         <v>9</v>
       </c>
       <c r="B9" s="128" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C9" s="128">
         <v>23</v>
       </c>
       <c r="D9" s="128" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E9" s="128">
         <v>37</v>
       </c>
       <c r="F9" s="128" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="G9" s="128">
         <v>51</v>
       </c>
       <c r="H9" s="128" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I9" s="129"/>
       <c r="J9" s="129"/>
@@ -11234,25 +11228,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="128" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C10" s="128">
         <v>24</v>
       </c>
       <c r="D10" s="128" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E10" s="128">
         <v>38</v>
       </c>
       <c r="F10" s="128" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G10" s="128">
         <v>52</v>
       </c>
       <c r="H10" s="128" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="I10" s="129"/>
       <c r="J10" s="129"/>
@@ -11262,25 +11256,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="128" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C11" s="128">
         <v>25</v>
       </c>
       <c r="D11" s="128" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E11" s="128">
         <v>39</v>
       </c>
       <c r="F11" s="128" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="G11" s="128">
         <v>53</v>
       </c>
       <c r="H11" s="128" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="I11" s="129"/>
       <c r="J11" s="129"/>
@@ -11290,25 +11284,25 @@
         <v>12</v>
       </c>
       <c r="B12" s="128" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C12" s="128">
         <v>26</v>
       </c>
       <c r="D12" s="128" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E12" s="128">
         <v>40</v>
       </c>
       <c r="F12" s="128" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="G12" s="128">
         <v>54</v>
       </c>
       <c r="H12" s="128" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="I12" s="129"/>
       <c r="J12" s="129"/>
@@ -11318,25 +11312,25 @@
         <v>13</v>
       </c>
       <c r="B13" s="128" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C13" s="128">
         <v>27</v>
       </c>
       <c r="D13" s="128" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E13" s="128">
         <v>41</v>
       </c>
       <c r="F13" s="128" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G13" s="128">
         <v>55</v>
       </c>
       <c r="H13" s="128" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="I13" s="129"/>
       <c r="J13" s="129"/>
@@ -11346,25 +11340,25 @@
         <v>14</v>
       </c>
       <c r="B14" s="128" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C14" s="128">
         <v>28</v>
       </c>
       <c r="D14" s="128" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E14" s="128">
         <v>42</v>
       </c>
       <c r="F14" s="128" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="G14" s="128">
         <v>56</v>
       </c>
       <c r="H14" s="128" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="I14" s="129"/>
       <c r="J14" s="129"/>
@@ -11428,13 +11422,13 @@
         <v>28</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G2" s="23">
         <v>49957</v>
@@ -11451,7 +11445,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>37</v>
@@ -11497,7 +11491,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>43</v>
@@ -11520,7 +11514,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>49</v>
@@ -11543,7 +11537,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>55</v>
@@ -11566,7 +11560,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>60</v>
@@ -11585,7 +11579,7 @@
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>64</v>
@@ -11608,7 +11602,7 @@
         <v>68</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>70</v>
@@ -11910,7 +11904,7 @@
         <v>142</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F23" s="80" t="s">
         <v>144</v>
@@ -12206,13 +12200,13 @@
         <v>28</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>29</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G36" s="31">
         <v>61533</v>
@@ -12229,13 +12223,13 @@
         <v>28</v>
       </c>
       <c r="D37" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="F37" s="82" t="s">
         <v>211</v>
-      </c>
-      <c r="F37" s="82" t="s">
-        <v>212</v>
       </c>
       <c r="G37" s="30">
         <v>81568</v>
@@ -12252,13 +12246,13 @@
         <v>28</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>119</v>
       </c>
       <c r="F38" s="82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G38" s="30">
         <v>75000</v>
@@ -12275,13 +12269,13 @@
         <v>28</v>
       </c>
       <c r="D39" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="E39" s="28" t="s">
-        <v>224</v>
-      </c>
       <c r="F39" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G39" s="30">
         <v>50000</v>
@@ -12298,13 +12292,13 @@
         <v>28</v>
       </c>
       <c r="D40" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="F40" s="82" t="s">
         <v>231</v>
-      </c>
-      <c r="F40" s="82" t="s">
-        <v>232</v>
       </c>
       <c r="G40" s="30">
         <v>69906</v>
@@ -12321,13 +12315,13 @@
         <v>28</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E41" s="32" t="s">
         <v>70</v>
       </c>
       <c r="F41" s="83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G41" s="33">
         <v>124516</v>
@@ -12342,13 +12336,13 @@
         <v>28</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E42" s="84" t="s">
         <v>169</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G42" s="36">
         <v>74957</v>
@@ -12363,13 +12357,13 @@
         <v>28</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E43" s="37" t="s">
         <v>44</v>
       </c>
       <c r="F43" s="86" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G43" s="39">
         <v>70548.34</v>
@@ -12382,13 +12376,13 @@
       <c r="B44" s="35"/>
       <c r="C44" s="34"/>
       <c r="D44" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E44" s="87" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F44" s="85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G44" s="36">
         <v>74536</v>
@@ -12401,13 +12395,13 @@
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F45" s="86" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G45" s="40">
         <v>75000.100000000006</v>
@@ -12420,13 +12414,13 @@
       <c r="B46" s="35"/>
       <c r="C46" s="34"/>
       <c r="D46" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" s="87" t="s">
+        <v>540</v>
+      </c>
+      <c r="F46" s="85" t="s">
         <v>268</v>
-      </c>
-      <c r="E46" s="87" t="s">
-        <v>543</v>
-      </c>
-      <c r="F46" s="85" t="s">
-        <v>269</v>
       </c>
       <c r="G46" s="36">
         <v>74536</v>
@@ -12439,13 +12433,13 @@
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E47" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="E47" s="37" t="s">
-        <v>274</v>
-      </c>
       <c r="F47" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G47" s="40">
         <v>75000.5</v>
@@ -12458,13 +12452,13 @@
       <c r="B48" s="35"/>
       <c r="C48" s="34"/>
       <c r="D48" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="E48" s="84" t="s">
+      <c r="F48" s="85" t="s">
         <v>280</v>
-      </c>
-      <c r="F48" s="85" t="s">
-        <v>281</v>
       </c>
       <c r="G48" s="36">
         <v>50000</v>
@@ -12477,13 +12471,13 @@
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="38" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E49" s="37" t="s">
         <v>150</v>
       </c>
       <c r="F49" s="86" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G49" s="40">
         <v>75000</v>
@@ -12496,13 +12490,13 @@
       <c r="B50" s="35"/>
       <c r="C50" s="34"/>
       <c r="D50" s="35" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E50" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="F50" s="85" t="s">
         <v>289</v>
-      </c>
-      <c r="F50" s="85" t="s">
-        <v>290</v>
       </c>
       <c r="G50" s="41">
         <v>75000</v>
@@ -12515,13 +12509,13 @@
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="38" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F51" s="86" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G51" s="39">
         <v>51324</v>
@@ -12534,13 +12528,13 @@
       <c r="B52" s="35"/>
       <c r="C52" s="34"/>
       <c r="D52" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="E52" s="88" t="s">
         <v>302</v>
       </c>
-      <c r="E52" s="88" t="s">
-        <v>303</v>
-      </c>
       <c r="F52" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G52" s="36">
         <v>74953</v>
@@ -12553,13 +12547,13 @@
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="F53" s="86" t="s">
         <v>310</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="F53" s="86" t="s">
-        <v>311</v>
       </c>
       <c r="G53" s="39">
         <v>60346</v>
@@ -12572,13 +12566,13 @@
       <c r="B54" s="35"/>
       <c r="C54" s="34"/>
       <c r="D54" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="E54" s="84" t="s">
         <v>314</v>
       </c>
-      <c r="E54" s="84" t="s">
+      <c r="F54" s="85" t="s">
         <v>315</v>
-      </c>
-      <c r="F54" s="85" t="s">
-        <v>316</v>
       </c>
       <c r="G54" s="36">
         <v>66100</v>
@@ -12591,13 +12585,13 @@
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E55" s="37" t="s">
         <v>29</v>
       </c>
       <c r="F55" s="86" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G55" s="40">
         <v>75000</v>
@@ -12605,18 +12599,18 @@
     </row>
     <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B56" s="43"/>
       <c r="C56" s="44"/>
       <c r="D56" s="43" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E56" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="F56" s="86" t="s">
         <v>328</v>
-      </c>
-      <c r="F56" s="86" t="s">
-        <v>330</v>
       </c>
       <c r="G56" s="40">
         <v>30000</v>
@@ -12624,17 +12618,17 @@
     </row>
     <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B57" s="45"/>
       <c r="D57" s="46" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E57" s="89" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F57" s="90" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G57" s="47">
         <v>49937</v>
@@ -12642,17 +12636,17 @@
     </row>
     <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B58" s="45"/>
       <c r="D58" s="48" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E58" s="91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F58" s="92" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G58" s="49">
         <v>31998.45</v>
@@ -12660,18 +12654,18 @@
     </row>
     <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
       <c r="D59" s="46" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E59" s="93" t="s">
+        <v>348</v>
+      </c>
+      <c r="F59" s="94" t="s">
         <v>350</v>
-      </c>
-      <c r="F59" s="94" t="s">
-        <v>352</v>
       </c>
       <c r="G59" s="49">
         <v>47149</v>
@@ -12679,18 +12673,18 @@
     </row>
     <row r="60" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B60" s="43"/>
       <c r="C60" s="44"/>
       <c r="D60" s="48" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E60" s="95" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F60" s="96" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G60" s="49">
         <v>60000</v>
@@ -12698,18 +12692,18 @@
     </row>
     <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="50" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B61" s="43"/>
       <c r="C61" s="44"/>
       <c r="D61" s="46" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E61" s="93" t="s">
+        <v>361</v>
+      </c>
+      <c r="F61" s="94" t="s">
         <v>363</v>
-      </c>
-      <c r="F61" s="94" t="s">
-        <v>365</v>
       </c>
       <c r="G61" s="49">
         <v>32000</v>
@@ -12717,18 +12711,18 @@
     </row>
     <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B62" s="43"/>
       <c r="C62" s="44"/>
       <c r="D62" s="48" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E62" s="95" t="s">
+        <v>367</v>
+      </c>
+      <c r="F62" s="96" t="s">
         <v>369</v>
-      </c>
-      <c r="F62" s="96" t="s">
-        <v>371</v>
       </c>
       <c r="G62" s="51">
         <v>45004</v>
@@ -12736,18 +12730,18 @@
     </row>
     <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="50" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B63" s="52"/>
       <c r="C63" s="53"/>
       <c r="D63" s="46" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E63" s="93" t="s">
+        <v>373</v>
+      </c>
+      <c r="F63" s="94" t="s">
         <v>375</v>
-      </c>
-      <c r="F63" s="94" t="s">
-        <v>377</v>
       </c>
       <c r="G63" s="49">
         <v>15000</v>
@@ -12755,18 +12749,18 @@
     </row>
     <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B64" s="43"/>
       <c r="C64" s="44"/>
       <c r="D64" s="48" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E64" s="95" t="s">
         <v>85</v>
       </c>
       <c r="F64" s="96" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G64" s="49">
         <v>47050</v>
@@ -12774,18 +12768,18 @@
     </row>
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="50" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B65" s="54"/>
       <c r="C65" s="55"/>
       <c r="D65" s="56" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E65" s="93" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F65" s="94" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G65" s="51">
         <v>35000</v>
@@ -12793,18 +12787,18 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B66" s="43"/>
       <c r="C66" s="44"/>
       <c r="D66" s="57" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E66" s="95" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F66" s="96" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G66" s="51">
         <v>10000</v>
@@ -12812,18 +12806,18 @@
     </row>
     <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B67" s="43"/>
       <c r="C67" s="44"/>
       <c r="D67" s="56" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E67" s="93" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F67" s="94" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G67" s="51">
         <v>60000</v>
@@ -12831,18 +12825,18 @@
     </row>
     <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="58" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B68" s="59"/>
       <c r="C68" s="60"/>
       <c r="D68" s="57" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E68" s="95" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F68" s="96" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G68" s="61">
         <v>50000</v>
@@ -12850,18 +12844,18 @@
     </row>
     <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="62" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B69" s="63"/>
       <c r="C69" s="64"/>
       <c r="D69" s="56" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E69" s="93" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F69" s="94" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G69" s="65">
         <v>60000</v>
@@ -12869,18 +12863,18 @@
     </row>
     <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B70" s="43"/>
       <c r="C70" s="44"/>
       <c r="D70" s="66" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E70" s="97" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F70" s="98" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G70" s="67">
         <v>55000</v>
@@ -12888,18 +12882,18 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="68" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B71" s="45"/>
       <c r="C71" s="45"/>
       <c r="D71" s="43" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E71" s="99" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F71" s="99" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G71" s="69">
         <v>48634</v>
@@ -12907,18 +12901,18 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="68" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B72" s="45"/>
       <c r="C72" s="45"/>
       <c r="D72" s="43" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E72" s="99" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F72" s="94" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G72" s="65">
         <v>49460</v>
@@ -12926,18 +12920,18 @@
     </row>
     <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="70" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B73" s="70"/>
       <c r="C73" s="70"/>
       <c r="D73" s="71" t="s">
+        <v>422</v>
+      </c>
+      <c r="E73" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="F73" s="72" t="s">
         <v>425</v>
-      </c>
-      <c r="E73" s="72" t="s">
-        <v>426</v>
-      </c>
-      <c r="F73" s="72" t="s">
-        <v>428</v>
       </c>
       <c r="G73" s="100">
         <v>75000</v>
@@ -12945,18 +12939,18 @@
     </row>
     <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="70" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B74" s="73"/>
       <c r="C74" s="70"/>
       <c r="D74" s="74" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E74" s="75" t="s">
         <v>97</v>
       </c>
       <c r="F74" s="75" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G74" s="101">
         <v>75000</v>
@@ -12964,18 +12958,18 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="70" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B75" s="76"/>
       <c r="C75" s="77"/>
       <c r="D75" s="71" t="s">
+        <v>435</v>
+      </c>
+      <c r="E75" s="72" t="s">
+        <v>436</v>
+      </c>
+      <c r="F75" s="72" t="s">
         <v>438</v>
-      </c>
-      <c r="E75" s="72" t="s">
-        <v>439</v>
-      </c>
-      <c r="F75" s="72" t="s">
-        <v>441</v>
       </c>
       <c r="G75" s="100">
         <v>75000</v>
@@ -12983,18 +12977,18 @@
     </row>
     <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="70" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B76" s="73"/>
       <c r="C76" s="70"/>
       <c r="D76" s="74" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E76" s="75" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F76" s="75" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G76" s="101">
         <v>75000</v>
@@ -13002,17 +12996,17 @@
     </row>
     <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="70" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B77" s="45"/>
       <c r="D77" s="71" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E77" s="72" t="s">
         <v>56</v>
       </c>
       <c r="F77" s="72" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G77" s="100">
         <v>73926</v>
@@ -13020,16 +13014,16 @@
     </row>
     <row r="78" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="70" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D78" s="74" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E78" s="75" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F78" s="75" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G78" s="101">
         <v>75000</v>
@@ -13037,17 +13031,17 @@
     </row>
     <row r="79" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="70" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B79" s="45"/>
       <c r="D79" s="71" t="s">
+        <v>457</v>
+      </c>
+      <c r="E79" s="72" t="s">
+        <v>458</v>
+      </c>
+      <c r="F79" s="72" t="s">
         <v>460</v>
-      </c>
-      <c r="E79" s="72" t="s">
-        <v>461</v>
-      </c>
-      <c r="F79" s="72" t="s">
-        <v>463</v>
       </c>
       <c r="G79" s="100">
         <v>74895</v>
@@ -13055,17 +13049,17 @@
     </row>
     <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="70" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B80" s="45"/>
       <c r="D80" s="74" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E80" s="75" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F80" s="75" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G80" s="101">
         <v>75000</v>
@@ -13073,17 +13067,17 @@
     </row>
     <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="70" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B81" s="45"/>
       <c r="D81" s="71" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E81" s="78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F81" s="72" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G81" s="100">
         <v>74086</v>
@@ -13091,17 +13085,17 @@
     </row>
     <row r="82" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="70" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B82" s="45"/>
       <c r="D82" s="74" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E82" s="79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G82" s="101">
         <v>74999.509999999995</v>
@@ -13109,17 +13103,17 @@
     </row>
     <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="70" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B83" s="45"/>
       <c r="D83" s="71" t="s">
+        <v>477</v>
+      </c>
+      <c r="E83" s="72" t="s">
+        <v>478</v>
+      </c>
+      <c r="F83" s="72" t="s">
         <v>480</v>
-      </c>
-      <c r="E83" s="72" t="s">
-        <v>481</v>
-      </c>
-      <c r="F83" s="72" t="s">
-        <v>483</v>
       </c>
       <c r="G83" s="100">
         <v>72088.37</v>
@@ -13127,17 +13121,17 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="70" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B84" s="45"/>
       <c r="D84" s="74" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E84" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F84" s="75" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G84" s="101">
         <v>75000</v>
@@ -13145,17 +13139,17 @@
     </row>
     <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="70" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B85" s="45"/>
       <c r="D85" s="71" t="s">
+        <v>487</v>
+      </c>
+      <c r="E85" s="72" t="s">
+        <v>488</v>
+      </c>
+      <c r="F85" s="72" t="s">
         <v>490</v>
-      </c>
-      <c r="E85" s="72" t="s">
-        <v>491</v>
-      </c>
-      <c r="F85" s="72" t="s">
-        <v>493</v>
       </c>
       <c r="G85" s="100">
         <v>74836</v>
@@ -13284,16 +13278,16 @@
         <v>2014</v>
       </c>
       <c r="C2" s="104" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D2" s="104" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E2" s="104" t="s">
         <v>104</v>
       </c>
       <c r="F2" s="104" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G2" s="104">
         <v>45467</v>
@@ -13304,13 +13298,13 @@
         <v>2014</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D3" s="104" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F3" s="104" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G3" s="104">
         <v>30904</v>
@@ -13321,16 +13315,16 @@
         <v>2014</v>
       </c>
       <c r="C4" s="104" t="s">
+        <v>570</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>571</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>572</v>
+      </c>
+      <c r="F4" s="104" t="s">
         <v>573</v>
-      </c>
-      <c r="D4" s="104" t="s">
-        <v>574</v>
-      </c>
-      <c r="E4" s="104" t="s">
-        <v>575</v>
-      </c>
-      <c r="F4" s="104" t="s">
-        <v>576</v>
       </c>
       <c r="G4" s="104">
         <v>41324</v>
@@ -13341,25 +13335,25 @@
         <v>2014</v>
       </c>
       <c r="C5" s="104" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D5" s="104" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E5" s="104" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F5" s="104" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G5" s="104">
         <v>101047</v>
       </c>
       <c r="H5" s="104" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I5" s="104" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -13367,7 +13361,7 @@
         <v>2014</v>
       </c>
       <c r="C6" s="104" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D6" s="104" t="s">
         <v>137</v>
@@ -13376,7 +13370,7 @@
         <v>150</v>
       </c>
       <c r="F6" s="104" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G6" s="104">
         <v>60020</v>
@@ -13390,22 +13384,22 @@
         <v>2014</v>
       </c>
       <c r="C7" s="104" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D7" s="104" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="104" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7" s="104" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G7" s="104">
         <v>49993</v>
       </c>
       <c r="H7" s="104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -13413,13 +13407,13 @@
         <v>2014</v>
       </c>
       <c r="C8" s="104" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D8" s="104" t="s">
         <v>118</v>
       </c>
       <c r="F8" s="104" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G8" s="104">
         <v>49247</v>
@@ -13430,7 +13424,7 @@
         <v>2014</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D9" s="104" t="s">
         <v>37</v>
@@ -13439,7 +13433,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="104" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G9" s="104">
         <v>48909</v>
@@ -13450,16 +13444,16 @@
         <v>2014</v>
       </c>
       <c r="C10" s="104" t="s">
+        <v>587</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>588</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>589</v>
+      </c>
+      <c r="F10" s="104" t="s">
         <v>590</v>
-      </c>
-      <c r="D10" s="104" t="s">
-        <v>591</v>
-      </c>
-      <c r="E10" s="104" t="s">
-        <v>592</v>
-      </c>
-      <c r="F10" s="104" t="s">
-        <v>593</v>
       </c>
       <c r="G10" s="104">
         <v>50000</v>
@@ -13470,22 +13464,22 @@
         <v>2014</v>
       </c>
       <c r="C11" s="104" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D11" s="104" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E11" s="104" t="s">
         <v>85</v>
       </c>
       <c r="F11" s="104" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G11" s="104">
         <v>96000</v>
       </c>
       <c r="H11" s="104" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -13493,16 +13487,16 @@
         <v>2014</v>
       </c>
       <c r="C12" s="104" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D12" s="104" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F12" s="104" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G12" s="104">
         <v>49906</v>
@@ -13516,16 +13510,16 @@
         <v>28</v>
       </c>
       <c r="C13" s="104" t="s">
+        <v>597</v>
+      </c>
+      <c r="D13" s="104" t="s">
+        <v>598</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>599</v>
+      </c>
+      <c r="F13" s="104" t="s">
         <v>600</v>
-      </c>
-      <c r="D13" s="104" t="s">
-        <v>601</v>
-      </c>
-      <c r="E13" s="104" t="s">
-        <v>602</v>
-      </c>
-      <c r="F13" s="104" t="s">
-        <v>603</v>
       </c>
       <c r="G13" s="104">
         <v>50000</v>
@@ -13539,7 +13533,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D14" s="104" t="s">
         <v>176</v>
@@ -13548,7 +13542,7 @@
         <v>178</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H14" s="104" t="s">
         <v>180</v>
@@ -13562,16 +13556,16 @@
         <v>28</v>
       </c>
       <c r="C15" s="104" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D15" s="104" t="s">
         <v>156</v>
       </c>
       <c r="E15" s="104" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F15" s="104" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -13582,10 +13576,10 @@
         <v>28</v>
       </c>
       <c r="D16" s="104" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F16" s="104" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -13599,16 +13593,16 @@
         <v>37</v>
       </c>
       <c r="E17" s="104" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F17" s="104" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H17" s="104" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I17" s="104" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -13619,10 +13613,10 @@
         <v>28</v>
       </c>
       <c r="D18" s="104" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F18" s="104" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -13633,16 +13627,16 @@
         <v>28</v>
       </c>
       <c r="C19" s="104" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D19" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E19" s="104" t="s">
         <v>127</v>
       </c>
       <c r="F19" s="104" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G19" s="104">
         <v>69960</v>
@@ -13659,16 +13653,16 @@
         <v>28</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D20" s="104" t="s">
         <v>150</v>
       </c>
       <c r="E20" s="104" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G20" s="104">
         <v>76098</v>
@@ -13717,19 +13711,19 @@
         <v>28</v>
       </c>
       <c r="C22" s="104" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D22" s="104" t="s">
         <v>127</v>
       </c>
       <c r="E22" s="104" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F22" s="104" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H22" s="104" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -13740,16 +13734,16 @@
         <v>28</v>
       </c>
       <c r="C23" s="104" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D23" s="104" t="s">
         <v>178</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F23" s="104" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G23" s="104">
         <v>95834</v>
@@ -13763,34 +13757,34 @@
         <v>28</v>
       </c>
       <c r="C24" s="104" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D24" s="104" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="104" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F24" s="104" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G24" s="104">
         <v>2017692</v>
       </c>
       <c r="H24" s="104" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="I24" s="104" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="J24" s="104" t="s">
         <v>136</v>
       </c>
       <c r="K24" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L24" s="104" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -13801,16 +13795,16 @@
         <v>28</v>
       </c>
       <c r="C25" s="104" t="s">
+        <v>627</v>
+      </c>
+      <c r="D25" s="104" t="s">
+        <v>628</v>
+      </c>
+      <c r="E25" s="104" t="s">
+        <v>629</v>
+      </c>
+      <c r="F25" s="104" t="s">
         <v>630</v>
-      </c>
-      <c r="D25" s="104" t="s">
-        <v>631</v>
-      </c>
-      <c r="E25" s="104" t="s">
-        <v>632</v>
-      </c>
-      <c r="F25" s="104" t="s">
-        <v>633</v>
       </c>
       <c r="G25" s="104">
         <v>91750</v>
@@ -13824,28 +13818,28 @@
         <v>28</v>
       </c>
       <c r="C26" s="104" t="s">
+        <v>631</v>
+      </c>
+      <c r="D26" s="104" t="s">
+        <v>632</v>
+      </c>
+      <c r="E26" s="104" t="s">
+        <v>633</v>
+      </c>
+      <c r="F26" s="104" t="s">
         <v>634</v>
-      </c>
-      <c r="D26" s="104" t="s">
-        <v>635</v>
-      </c>
-      <c r="E26" s="104" t="s">
-        <v>636</v>
-      </c>
-      <c r="F26" s="104" t="s">
-        <v>637</v>
       </c>
       <c r="G26" s="104">
         <v>109971.4</v>
       </c>
       <c r="H26" s="104" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="I26" s="104" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J26" s="104" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -13856,25 +13850,25 @@
         <v>28</v>
       </c>
       <c r="C27" s="104" t="s">
+        <v>638</v>
+      </c>
+      <c r="D27" s="104" t="s">
+        <v>639</v>
+      </c>
+      <c r="E27" s="104" t="s">
+        <v>640</v>
+      </c>
+      <c r="F27" s="104" t="s">
         <v>641</v>
-      </c>
-      <c r="D27" s="104" t="s">
-        <v>642</v>
-      </c>
-      <c r="E27" s="104" t="s">
-        <v>643</v>
-      </c>
-      <c r="F27" s="104" t="s">
-        <v>644</v>
       </c>
       <c r="G27" s="104">
         <v>78679</v>
       </c>
       <c r="H27" s="104" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I27" s="104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -13885,22 +13879,22 @@
         <v>28</v>
       </c>
       <c r="C28" s="104" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D28" s="104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E28" s="104" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F28" s="104" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G28" s="104">
         <v>54871</v>
       </c>
       <c r="H28" s="104" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -13911,22 +13905,22 @@
         <v>28</v>
       </c>
       <c r="C29" s="104" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D29" s="104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E29" s="104" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F29" s="104" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G29" s="104">
         <v>116779.08</v>
       </c>
       <c r="H29" s="104" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -13937,25 +13931,25 @@
         <v>28</v>
       </c>
       <c r="C30" s="104" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D30" s="104" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E30" s="104" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F30" s="104" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G30" s="104">
         <v>93749</v>
       </c>
       <c r="H30" s="104" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="I30" s="104" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -13966,7 +13960,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="104" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D31" s="104" t="s">
         <v>56</v>
@@ -13975,7 +13969,7 @@
         <v>70</v>
       </c>
       <c r="F31" s="104" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G31" s="104">
         <v>13503</v>
@@ -13989,28 +13983,28 @@
         <v>28</v>
       </c>
       <c r="C32" s="104" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D32" s="104" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E32" s="104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F32" s="104" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G32" s="104">
         <v>129304</v>
       </c>
       <c r="H32" s="104" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I32" s="104" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="J32" s="104" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -14021,25 +14015,25 @@
         <v>28</v>
       </c>
       <c r="C33" s="104" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D33" s="104" t="s">
         <v>159</v>
       </c>
       <c r="E33" s="104" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F33" s="104" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G33" s="104">
         <v>65084</v>
       </c>
       <c r="H33" s="104" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I33" s="104" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -14050,16 +14044,16 @@
         <v>28</v>
       </c>
       <c r="C34" s="104" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D34" s="104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E34" s="104" t="s">
         <v>159</v>
       </c>
       <c r="F34" s="104" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G34" s="104">
         <v>120009.5</v>
@@ -14071,7 +14065,7 @@
         <v>122</v>
       </c>
       <c r="J34" s="104" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -14082,22 +14076,22 @@
         <v>28</v>
       </c>
       <c r="C35" s="104" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D35" s="104" t="s">
         <v>184</v>
       </c>
       <c r="E35" s="104" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F35" s="104" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G35" s="104">
         <v>50000</v>
       </c>
       <c r="H35" s="104" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -14108,25 +14102,25 @@
         <v>28</v>
       </c>
       <c r="C36" s="104" t="s">
+        <v>671</v>
+      </c>
+      <c r="D36" s="104" t="s">
+        <v>672</v>
+      </c>
+      <c r="E36" s="104" t="s">
+        <v>673</v>
+      </c>
+      <c r="F36" s="104" t="s">
         <v>674</v>
-      </c>
-      <c r="D36" s="104" t="s">
-        <v>675</v>
-      </c>
-      <c r="E36" s="104" t="s">
-        <v>676</v>
-      </c>
-      <c r="F36" s="104" t="s">
-        <v>677</v>
       </c>
       <c r="G36" s="104">
         <v>59656</v>
       </c>
       <c r="H36" s="104" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I36" s="104" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J36" s="104" t="s">
         <v>56</v>
@@ -14140,25 +14134,25 @@
         <v>28</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D37" s="104" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E37" s="104" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F37" s="104" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G37" s="104">
         <v>56518</v>
       </c>
       <c r="H37" s="104" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I37" s="104" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -14169,16 +14163,16 @@
         <v>28</v>
       </c>
       <c r="C38" s="104" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D38" s="104" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E38" s="104" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F38" s="104" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G38" s="104">
         <v>45977</v>
@@ -14192,22 +14186,22 @@
         <v>28</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D39" s="104" t="s">
         <v>159</v>
       </c>
       <c r="E39" s="104" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F39" s="104" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G39" s="104">
         <v>81229</v>
       </c>
       <c r="H39" s="104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -14218,16 +14212,16 @@
         <v>28</v>
       </c>
       <c r="C40" s="104" t="s">
+        <v>683</v>
+      </c>
+      <c r="D40" s="104" t="s">
+        <v>684</v>
+      </c>
+      <c r="E40" s="104" t="s">
+        <v>685</v>
+      </c>
+      <c r="F40" s="104" t="s">
         <v>686</v>
-      </c>
-      <c r="D40" s="104" t="s">
-        <v>687</v>
-      </c>
-      <c r="E40" s="104" t="s">
-        <v>688</v>
-      </c>
-      <c r="F40" s="104" t="s">
-        <v>689</v>
       </c>
       <c r="G40" s="104">
         <v>50000</v>
@@ -14236,10 +14230,10 @@
         <v>44</v>
       </c>
       <c r="I40" s="104" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J40" s="104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -14250,25 +14244,25 @@
         <v>28</v>
       </c>
       <c r="C41" s="104" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D41" s="104" t="s">
         <v>159</v>
       </c>
       <c r="E41" s="104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F41" s="104" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G41" s="104">
         <v>69482</v>
       </c>
       <c r="H41" s="104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I41" s="104" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -14279,31 +14273,31 @@
         <v>28</v>
       </c>
       <c r="C42" s="104" t="s">
+        <v>689</v>
+      </c>
+      <c r="D42" s="104" t="s">
+        <v>690</v>
+      </c>
+      <c r="E42" s="104" t="s">
+        <v>691</v>
+      </c>
+      <c r="F42" s="104" t="s">
         <v>692</v>
-      </c>
-      <c r="D42" s="104" t="s">
-        <v>693</v>
-      </c>
-      <c r="E42" s="104" t="s">
-        <v>694</v>
-      </c>
-      <c r="F42" s="104" t="s">
-        <v>695</v>
       </c>
       <c r="G42" s="104">
         <v>118402.42</v>
       </c>
       <c r="H42" s="104" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I42" s="104" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J42" s="104" t="s">
         <v>46</v>
       </c>
       <c r="K42" s="104" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -14314,25 +14308,25 @@
         <v>28</v>
       </c>
       <c r="C43" s="104" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D43" s="104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E43" s="104" t="s">
         <v>159</v>
       </c>
       <c r="F43" s="104" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G43" s="104">
         <v>59605</v>
       </c>
       <c r="H43" s="104" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="I43" s="104" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -14343,22 +14337,22 @@
         <v>28</v>
       </c>
       <c r="C44" s="104" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D44" s="104" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E44" s="104" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F44" s="104" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G44" s="104">
         <v>74869</v>
       </c>
       <c r="H44" s="104" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -14369,31 +14363,31 @@
         <v>28</v>
       </c>
       <c r="C45" s="104" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D45" s="104" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E45" s="104" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F45" s="104" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G45" s="105">
         <v>126310.39999999999</v>
       </c>
       <c r="H45" s="104" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="I45" s="104" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="J45" s="104" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K45" s="104" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -14404,16 +14398,16 @@
         <v>28</v>
       </c>
       <c r="C46" s="104" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D46" s="104" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E46" s="104" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F46" s="104" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G46" s="104">
         <v>81357</v>
@@ -14427,16 +14421,16 @@
         <v>28</v>
       </c>
       <c r="C47" s="104" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D47" s="104" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E47" s="104" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F47" s="104" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G47" s="104">
         <v>77807</v>
@@ -14445,7 +14439,7 @@
         <v>159</v>
       </c>
       <c r="I47" s="104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -14456,25 +14450,25 @@
         <v>68</v>
       </c>
       <c r="C48" s="104" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D48" s="104" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E48" s="104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F48" s="104" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G48" s="104">
         <v>75000</v>
       </c>
       <c r="H48" s="104" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="I48" s="104" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -14485,40 +14479,40 @@
         <v>68</v>
       </c>
       <c r="C49" s="104" t="s">
+        <v>712</v>
+      </c>
+      <c r="D49" s="104" t="s">
+        <v>713</v>
+      </c>
+      <c r="E49" s="104" t="s">
+        <v>714</v>
+      </c>
+      <c r="F49" s="104" t="s">
         <v>715</v>
-      </c>
-      <c r="D49" s="104" t="s">
-        <v>716</v>
-      </c>
-      <c r="E49" s="104" t="s">
-        <v>717</v>
-      </c>
-      <c r="F49" s="104" t="s">
-        <v>718</v>
       </c>
       <c r="G49" s="104">
         <v>40820</v>
       </c>
       <c r="H49" s="104" t="s">
+        <v>716</v>
+      </c>
+      <c r="I49" s="104" t="s">
+        <v>717</v>
+      </c>
+      <c r="J49" s="104" t="s">
+        <v>718</v>
+      </c>
+      <c r="K49" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="I49" s="104" t="s">
+      <c r="L49" s="104" t="s">
         <v>720</v>
       </c>
-      <c r="J49" s="104" t="s">
+      <c r="M49" s="104" t="s">
         <v>721</v>
       </c>
-      <c r="K49" s="104" t="s">
+      <c r="N49" s="104" t="s">
         <v>722</v>
-      </c>
-      <c r="L49" s="104" t="s">
-        <v>723</v>
-      </c>
-      <c r="M49" s="104" t="s">
-        <v>724</v>
-      </c>
-      <c r="N49" s="104" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -14529,7 +14523,7 @@
         <v>68</v>
       </c>
       <c r="C50" s="104" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D50" s="104" t="s">
         <v>176</v>
@@ -14538,7 +14532,7 @@
         <v>178</v>
       </c>
       <c r="F50" s="104" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G50" s="104">
         <v>70000</v>
@@ -14550,7 +14544,7 @@
         <v>181</v>
       </c>
       <c r="J50" s="104" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -14561,22 +14555,22 @@
         <v>68</v>
       </c>
       <c r="C51" s="104" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D51" s="104" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E51" s="104" t="s">
         <v>118</v>
       </c>
       <c r="F51" s="104" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G51" s="104">
         <v>75250</v>
       </c>
       <c r="H51" s="104" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I51" s="104" t="s">
         <v>119</v>
@@ -14590,31 +14584,31 @@
         <v>68</v>
       </c>
       <c r="C52" s="104" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D52" s="104" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E52" s="104" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F52" s="104" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G52" s="104">
         <v>75000</v>
       </c>
       <c r="H52" s="104" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="I52" s="104" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="J52" s="104" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="K52" s="104" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -14625,25 +14619,25 @@
         <v>68</v>
       </c>
       <c r="C53" s="104" t="s">
+        <v>734</v>
+      </c>
+      <c r="D53" s="104" t="s">
+        <v>735</v>
+      </c>
+      <c r="E53" s="104" t="s">
+        <v>736</v>
+      </c>
+      <c r="F53" s="104" t="s">
         <v>737</v>
-      </c>
-      <c r="D53" s="104" t="s">
-        <v>738</v>
-      </c>
-      <c r="E53" s="104" t="s">
-        <v>739</v>
-      </c>
-      <c r="F53" s="104" t="s">
-        <v>740</v>
       </c>
       <c r="G53" s="104">
         <v>74641</v>
       </c>
       <c r="H53" s="104" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I53" s="104" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -14654,22 +14648,22 @@
         <v>68</v>
       </c>
       <c r="C54" s="104" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D54" s="104" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E54" s="104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F54" s="104" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G54" s="104">
         <v>75000</v>
       </c>
       <c r="H54" s="104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -14680,25 +14674,25 @@
         <v>68</v>
       </c>
       <c r="C55" s="104" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D55" s="104" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E55" s="104" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F55" s="104" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G55" s="106">
         <v>65704.160000000003</v>
       </c>
       <c r="H55" s="104" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I55" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -14709,16 +14703,16 @@
         <v>68</v>
       </c>
       <c r="C56" s="104" t="s">
+        <v>743</v>
+      </c>
+      <c r="D56" s="104" t="s">
+        <v>744</v>
+      </c>
+      <c r="E56" s="104" t="s">
+        <v>745</v>
+      </c>
+      <c r="F56" s="104" t="s">
         <v>746</v>
-      </c>
-      <c r="D56" s="104" t="s">
-        <v>747</v>
-      </c>
-      <c r="E56" s="104" t="s">
-        <v>748</v>
-      </c>
-      <c r="F56" s="104" t="s">
-        <v>749</v>
       </c>
       <c r="G56" s="104">
         <v>75000</v>
@@ -14727,7 +14721,7 @@
         <v>38</v>
       </c>
       <c r="I56" s="104" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -14738,25 +14732,25 @@
         <v>68</v>
       </c>
       <c r="C57" s="104" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D57" s="104" t="s">
         <v>56</v>
       </c>
       <c r="E57" s="104" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F57" s="104" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G57" s="104">
         <v>49500</v>
       </c>
       <c r="H57" s="104" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I57" s="104" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -14767,25 +14761,25 @@
         <v>28</v>
       </c>
       <c r="C58" s="107" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D58" s="104" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E58" s="104" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F58" s="104" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G58" s="104">
         <v>75000</v>
       </c>
       <c r="H58" s="104" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I58" s="104" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -14796,25 +14790,25 @@
         <v>28</v>
       </c>
       <c r="C59" s="107" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D59" s="104" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E59" s="104" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F59" s="104" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G59" s="104">
         <v>74081</v>
       </c>
       <c r="H59" s="104" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I59" s="104" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -14825,34 +14819,34 @@
         <v>28</v>
       </c>
       <c r="C60" s="107" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D60" s="104" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E60" s="104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F60" s="104" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G60" s="104">
         <v>75000</v>
       </c>
       <c r="H60" s="104" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I60" s="104" t="s">
+        <v>759</v>
+      </c>
+      <c r="J60" s="104" t="s">
+        <v>760</v>
+      </c>
+      <c r="K60" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="L60" s="104" t="s">
         <v>762</v>
-      </c>
-      <c r="J60" s="104" t="s">
-        <v>763</v>
-      </c>
-      <c r="K60" s="104" t="s">
-        <v>764</v>
-      </c>
-      <c r="L60" s="104" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -14863,16 +14857,16 @@
         <v>28</v>
       </c>
       <c r="C61" s="107" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D61" s="104" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E61" s="104" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F61" s="104" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G61" s="104">
         <v>74765</v>
@@ -14889,16 +14883,16 @@
         <v>28</v>
       </c>
       <c r="C62" s="107" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D62" s="104" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E62" s="104" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F62" s="104" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G62" s="104">
         <v>153805</v>
@@ -14907,13 +14901,13 @@
         <v>114</v>
       </c>
       <c r="I62" s="104" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="J62" s="104" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K62" s="104" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -14924,7 +14918,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="107" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D63" s="104" t="s">
         <v>189</v>
@@ -14933,7 +14927,7 @@
         <v>87</v>
       </c>
       <c r="F63" s="104" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G63" s="104">
         <v>70084</v>
@@ -14953,28 +14947,28 @@
         <v>28</v>
       </c>
       <c r="C64" s="107" t="s">
+        <v>770</v>
+      </c>
+      <c r="D64" s="104" t="s">
+        <v>771</v>
+      </c>
+      <c r="E64" s="104" t="s">
+        <v>772</v>
+      </c>
+      <c r="F64" s="104" t="s">
         <v>773</v>
-      </c>
-      <c r="D64" s="104" t="s">
-        <v>774</v>
-      </c>
-      <c r="E64" s="104" t="s">
-        <v>775</v>
-      </c>
-      <c r="F64" s="104" t="s">
-        <v>776</v>
       </c>
       <c r="G64" s="104">
         <v>75000</v>
       </c>
       <c r="H64" s="104" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I64" s="104" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="J64" s="104" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -14985,25 +14979,25 @@
         <v>28</v>
       </c>
       <c r="C65" s="107" t="s">
+        <v>777</v>
+      </c>
+      <c r="D65" s="104" t="s">
+        <v>778</v>
+      </c>
+      <c r="E65" s="104" t="s">
+        <v>779</v>
+      </c>
+      <c r="F65" s="104" t="s">
         <v>780</v>
-      </c>
-      <c r="D65" s="104" t="s">
-        <v>781</v>
-      </c>
-      <c r="E65" s="104" t="s">
-        <v>782</v>
-      </c>
-      <c r="F65" s="104" t="s">
-        <v>783</v>
       </c>
       <c r="G65" s="104">
         <v>52640</v>
       </c>
       <c r="H65" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I65" s="104" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -15014,16 +15008,16 @@
         <v>28</v>
       </c>
       <c r="C66" s="107" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D66" s="104" t="s">
         <v>150</v>
       </c>
       <c r="E66" s="104" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F66" s="104" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G66" s="104">
         <v>162571.4</v>
@@ -15037,25 +15031,25 @@
         <v>28</v>
       </c>
       <c r="C67" s="107" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D67" s="104" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E67" s="104" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F67" s="104" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G67" s="104">
         <v>72618</v>
       </c>
       <c r="H67" s="104" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="I67" s="104" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -15066,22 +15060,22 @@
         <v>28</v>
       </c>
       <c r="C68" s="107" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D68" s="104" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E68" s="104" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F68" s="104" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G68" s="104">
         <v>127756.75</v>
       </c>
       <c r="H68" s="104" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -15092,37 +15086,37 @@
         <v>28</v>
       </c>
       <c r="C69" s="107" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D69" s="104" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E69" s="104" t="s">
         <v>118</v>
       </c>
       <c r="F69" s="104" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G69" s="104">
         <v>74802</v>
       </c>
       <c r="H69" s="104" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="I69" s="104" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="J69" s="104" t="s">
         <v>119</v>
       </c>
       <c r="K69" s="104" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="L69" s="104" t="s">
         <v>122</v>
       </c>
       <c r="M69" s="104" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -15133,28 +15127,28 @@
         <v>28</v>
       </c>
       <c r="C70" s="107" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D70" s="104" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E70" s="104" t="s">
         <v>119</v>
       </c>
       <c r="F70" s="104" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G70" s="104">
         <v>75000</v>
       </c>
       <c r="H70" s="104" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I70" s="104" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="J70" s="104" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -15165,22 +15159,22 @@
         <v>28</v>
       </c>
       <c r="C71" s="107" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D71" s="104" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E71" s="104" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F71" s="104" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G71" s="104">
         <v>74998</v>
       </c>
       <c r="H71" s="104" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -15191,25 +15185,25 @@
         <v>28</v>
       </c>
       <c r="C72" s="107" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D72" s="104" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E72" s="104" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F72" s="104" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G72" s="104">
         <v>68703</v>
       </c>
       <c r="H72" s="104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I72" s="104" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -15220,31 +15214,31 @@
         <v>28</v>
       </c>
       <c r="C73" s="107" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D73" s="104" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E73" s="104" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F73" s="104" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G73" s="104">
         <v>75000</v>
       </c>
       <c r="H73" s="104" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="I73" s="104" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J73" s="104" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="K73" s="104" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -15255,16 +15249,16 @@
         <v>28</v>
       </c>
       <c r="C74" s="107" t="s">
+        <v>814</v>
+      </c>
+      <c r="D74" s="104" t="s">
+        <v>815</v>
+      </c>
+      <c r="E74" s="104" t="s">
+        <v>816</v>
+      </c>
+      <c r="F74" s="104" t="s">
         <v>817</v>
-      </c>
-      <c r="D74" s="104" t="s">
-        <v>818</v>
-      </c>
-      <c r="E74" s="104" t="s">
-        <v>819</v>
-      </c>
-      <c r="F74" s="104" t="s">
-        <v>820</v>
       </c>
       <c r="G74" s="104">
         <v>75000</v>
@@ -15276,7 +15270,7 @@
         <v>119</v>
       </c>
       <c r="J74" s="104" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -15287,22 +15281,22 @@
         <v>28</v>
       </c>
       <c r="C75" s="107" t="s">
+        <v>818</v>
+      </c>
+      <c r="D75" s="104" t="s">
+        <v>819</v>
+      </c>
+      <c r="E75" s="104" t="s">
+        <v>820</v>
+      </c>
+      <c r="F75" s="104" t="s">
         <v>821</v>
-      </c>
-      <c r="D75" s="104" t="s">
-        <v>822</v>
-      </c>
-      <c r="E75" s="104" t="s">
-        <v>823</v>
-      </c>
-      <c r="F75" s="104" t="s">
-        <v>824</v>
       </c>
       <c r="G75" s="104">
         <v>33549</v>
       </c>
       <c r="H75" s="104" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -15313,31 +15307,31 @@
         <v>28</v>
       </c>
       <c r="C76" s="107" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D76" s="104" t="s">
         <v>85</v>
       </c>
       <c r="E76" s="104" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F76" s="104" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="G76" s="104">
         <v>359539</v>
       </c>
       <c r="H76" s="104" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I76" s="104" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J76" s="104" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="K76" s="104" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -15348,25 +15342,25 @@
         <v>28</v>
       </c>
       <c r="C77" s="107" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D77" s="104" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E77" s="104" t="s">
         <v>159</v>
       </c>
       <c r="F77" s="104" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G77" s="104">
         <v>75000</v>
       </c>
       <c r="H77" s="104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I77" s="104" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -15377,22 +15371,22 @@
         <v>28</v>
       </c>
       <c r="C78" s="107" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D78" s="104" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E78" s="104" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F78" s="104" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="G78" s="104">
         <v>98275</v>
       </c>
       <c r="H78" s="104" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -15403,28 +15397,28 @@
         <v>28</v>
       </c>
       <c r="C79" s="107" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D79" s="104" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E79" s="104" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F79" s="104" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="G79" s="104">
         <v>69997.67</v>
       </c>
       <c r="H79" s="104" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I79" s="104" t="s">
         <v>146</v>
       </c>
       <c r="J79" s="104" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>

--- a/datasheets/ALL Funded ARCHES Projects.xlsx
+++ b/datasheets/ALL Funded ARCHES Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinho\Documents\UIUC\ARCHES\Github\datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE38229-157D-41A7-A5C3-C457B058471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0007FEA9-E5E3-4328-84EA-91A9E1427E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="1001">
   <si>
     <t>Year</t>
   </si>
@@ -1119,9 +1119,6 @@
     <t>Yamuna Phal</t>
   </si>
   <si>
-    <t>Pei-Hsuan</t>
-  </si>
-  <si>
     <t>Tulika Chatterjee</t>
   </si>
   <si>
@@ -1374,9 +1371,6 @@
     <t>Bill Cope</t>
   </si>
   <si>
-    <t>Yerko Beroocal</t>
-  </si>
-  <si>
     <t>MedLang Phase II: An Intelligent Medical Record</t>
   </si>
   <si>
@@ -3067,6 +3061,9 @@
   </si>
   <si>
     <t>Sara Krzyzaniak</t>
+  </si>
+  <si>
+    <t>Pei-Hsuan Hsieh</t>
   </si>
 </sst>
 </file>
@@ -4533,8 +4530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B47" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4648,7 +4645,7 @@
         <v>27</v>
       </c>
       <c r="AC1" s="108" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4662,7 +4659,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>29</v>
@@ -4705,7 +4702,7 @@
         <v>35</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4814,7 +4811,7 @@
         <v>47</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="5" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4831,7 +4828,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>50</v>
@@ -4871,7 +4868,7 @@
         <v>53</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4925,7 +4922,7 @@
         <v>58</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="7" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4945,7 +4942,7 @@
         <v>60</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>61</v>
@@ -4979,7 +4976,7 @@
         <v>62</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5030,7 +5027,7 @@
         <v>67</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="9" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5087,7 +5084,7 @@
         <v>73</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5147,7 +5144,7 @@
         <v>35</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5210,7 +5207,7 @@
         <v>83</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="12" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5273,7 +5270,7 @@
         <v>89</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5330,7 +5327,7 @@
         <v>95</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5359,7 +5356,7 @@
         <v>49976</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T14" s="103" t="s">
         <v>33</v>
@@ -5387,7 +5384,7 @@
         <v>100</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="15" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5447,7 +5444,7 @@
         <v>106</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5559,7 +5556,7 @@
         <v>112</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="18" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5616,7 +5613,7 @@
         <v>116</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5682,7 +5679,7 @@
         <v>125</v>
       </c>
       <c r="AC19" s="13" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5739,7 +5736,7 @@
         <v>131</v>
       </c>
       <c r="AC20" s="13" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5805,7 +5802,7 @@
         <v>138</v>
       </c>
       <c r="AC21" s="13" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -5862,7 +5859,7 @@
         <v>141</v>
       </c>
       <c r="AC22" s="132" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5925,7 +5922,7 @@
         <v>147</v>
       </c>
       <c r="AC23" s="13" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5988,7 +5985,7 @@
         <v>83</v>
       </c>
       <c r="AC24" s="13" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6042,7 +6039,7 @@
         <v>95</v>
       </c>
       <c r="AC25" s="13" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="26" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6107,7 +6104,7 @@
         <v>58</v>
       </c>
       <c r="AC26" s="13" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="27" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6174,7 +6171,7 @@
         <v>58</v>
       </c>
       <c r="AC27" s="13" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="28" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6239,7 +6236,7 @@
         <v>161</v>
       </c>
       <c r="AC28" s="132" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="29" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6312,7 +6309,7 @@
         <v>138</v>
       </c>
       <c r="AC29" s="13" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="30" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6383,7 +6380,7 @@
         <v>167</v>
       </c>
       <c r="AC30" s="13" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="31" spans="1:29" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -6456,7 +6453,7 @@
         <v>174</v>
       </c>
       <c r="AC31" s="13" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="32" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6485,7 +6482,7 @@
         <v>49953</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>179</v>
@@ -6531,7 +6528,7 @@
         <v>182</v>
       </c>
       <c r="AC32" s="13" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="33" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6600,7 +6597,7 @@
         <v>187</v>
       </c>
       <c r="AC33" s="13" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="34" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6673,7 +6670,7 @@
         <v>192</v>
       </c>
       <c r="AC34" s="13" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="35" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6726,7 +6723,7 @@
         <v>201</v>
       </c>
       <c r="Q35" s="12" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="R35" s="12" t="s">
         <v>202</v>
@@ -6760,7 +6757,7 @@
         <v>203</v>
       </c>
       <c r="AC35" s="13" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="36" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6833,7 +6830,7 @@
         <v>35</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6853,7 +6850,7 @@
         <v>210</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>211</v>
@@ -6914,7 +6911,7 @@
         <v>218</v>
       </c>
       <c r="AC37" s="132" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6985,7 +6982,7 @@
         <v>141</v>
       </c>
       <c r="AC38" s="13" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="39" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -7056,7 +7053,7 @@
         <v>228</v>
       </c>
       <c r="AC39" s="13" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="40" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -7125,7 +7122,7 @@
         <v>232</v>
       </c>
       <c r="AC40" s="13" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="41" spans="1:29" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -7196,7 +7193,7 @@
         <v>237</v>
       </c>
       <c r="AC41" s="13" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7264,7 +7261,7 @@
         <v>241</v>
       </c>
       <c r="AC42" s="133" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7332,7 +7329,7 @@
         <v>246</v>
       </c>
       <c r="AC43" s="15" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7402,7 +7399,7 @@
         <v>252</v>
       </c>
       <c r="AC44" s="15" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7540,7 +7537,7 @@
         <v>266</v>
       </c>
       <c r="AC46" s="15" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7575,7 +7572,7 @@
         <v>270</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M47" s="12" t="s">
         <v>92</v>
@@ -7614,7 +7611,7 @@
         <v>271</v>
       </c>
       <c r="AC47" s="15" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7680,7 +7677,7 @@
         <v>277</v>
       </c>
       <c r="AC48" s="15" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7744,7 +7741,7 @@
         <v>282</v>
       </c>
       <c r="AC49" s="15" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7808,7 +7805,7 @@
         <v>286</v>
       </c>
       <c r="AC50" s="15" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7878,7 +7875,7 @@
         <v>293</v>
       </c>
       <c r="AC51" s="15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -7950,7 +7947,7 @@
         <v>300</v>
       </c>
       <c r="AC52" s="15" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8020,7 +8017,7 @@
         <v>308</v>
       </c>
       <c r="AC53" s="15" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8090,7 +8087,7 @@
         <v>312</v>
       </c>
       <c r="AC54" s="15" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8158,7 +8155,7 @@
         <v>317</v>
       </c>
       <c r="AC55" s="15" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8187,7 +8184,7 @@
         <v>224</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="K56" s="12" t="s">
         <v>321</v>
@@ -8230,7 +8227,7 @@
         <v>323</v>
       </c>
       <c r="AC56" s="15" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8300,7 +8297,7 @@
         <v>332</v>
       </c>
       <c r="AC57" s="15" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8317,7 +8314,7 @@
         <v>279</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>335</v>
@@ -8370,7 +8367,7 @@
         <v>340</v>
       </c>
       <c r="AC58" s="15" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8438,7 +8435,7 @@
         <v>346</v>
       </c>
       <c r="AC59" s="15" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8467,10 +8464,10 @@
         <v>351</v>
       </c>
       <c r="J60" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K60" s="12" t="s">
         <v>352</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>353</v>
       </c>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
@@ -8503,10 +8500,10 @@
       </c>
       <c r="AA60" s="15"/>
       <c r="AB60" s="124" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC60" s="15" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8517,22 +8514,22 @@
         <v>68</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>356</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H61" s="3">
         <v>60000</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J61" s="15"/>
       <c r="K61" s="12"/>
@@ -8567,10 +8564,10 @@
       </c>
       <c r="AA61" s="15"/>
       <c r="AB61" s="124" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AC61" s="15" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8581,25 +8578,25 @@
         <v>68</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="F62" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="G62" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="H62" s="3">
         <v>32000</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K62" s="15"/>
       <c r="L62" s="12"/>
@@ -8635,10 +8632,10 @@
         <v>44227</v>
       </c>
       <c r="AB62" s="124" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AC62" s="15" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8649,22 +8646,22 @@
         <v>68</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="F63" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="G63" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="H63" s="3">
         <v>45004</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J63" s="15"/>
       <c r="K63" s="12"/>
@@ -8701,10 +8698,10 @@
         <v>44227</v>
       </c>
       <c r="AB63" s="124" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC63" s="15" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8715,22 +8712,22 @@
         <v>68</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="F64" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="G64" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="H64" s="3">
         <v>15000</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
@@ -8767,10 +8764,10 @@
         <v>44074</v>
       </c>
       <c r="AB64" s="124" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AC64" s="133" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8781,7 +8778,7 @@
         <v>68</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>85</v>
@@ -8790,7 +8787,7 @@
         <v>243</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H65" s="3">
         <v>47050</v>
@@ -8799,7 +8796,7 @@
         <v>336</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
@@ -8835,10 +8832,10 @@
         <v>44592</v>
       </c>
       <c r="AB65" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AC65" s="15" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8849,25 +8846,25 @@
         <v>68</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F66" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="H66" s="3">
         <v>35000</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K66" s="12" t="s">
         <v>329</v>
@@ -8905,10 +8902,10 @@
         <v>44592</v>
       </c>
       <c r="AB66" s="124" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AC66" s="15" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8919,7 +8916,7 @@
         <v>68</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>56</v>
@@ -8928,16 +8925,16 @@
         <v>70</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H67" s="3">
         <v>10000</v>
       </c>
       <c r="I67" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="J67" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>388</v>
       </c>
       <c r="K67" s="15"/>
       <c r="L67" s="12"/>
@@ -8976,7 +8973,7 @@
         <v>332</v>
       </c>
       <c r="AC67" s="15" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -8987,16 +8984,16 @@
         <v>68</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F68" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="H68" s="3">
         <v>60000</v>
@@ -9041,10 +9038,10 @@
         <v>44377</v>
       </c>
       <c r="AB68" s="124" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AC68" s="15" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9055,22 +9052,22 @@
         <v>68</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>284</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H69" s="3">
         <v>50000</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J69" s="15"/>
       <c r="K69" s="12"/>
@@ -9107,10 +9104,10 @@
         <v>44592</v>
       </c>
       <c r="AB69" s="124" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AC69" s="15" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9121,7 +9118,7 @@
         <v>68</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>235</v>
@@ -9130,16 +9127,16 @@
         <v>284</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H70" s="3">
         <v>60000</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K70" s="12" t="s">
         <v>240</v>
@@ -9177,10 +9174,10 @@
         <v>44227</v>
       </c>
       <c r="AB70" s="124" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AC70" s="15" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9191,28 +9188,28 @@
         <v>68</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="F71" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="G71" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="H71" s="3">
         <v>55000</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J71" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="K71" s="12" t="s">
         <v>407</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>408</v>
       </c>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
@@ -9247,10 +9244,10 @@
         <v>44596</v>
       </c>
       <c r="AB71" s="124" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AC71" s="15" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9261,43 +9258,43 @@
         <v>68</v>
       </c>
       <c r="D72" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>411</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>243</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H72" s="3">
         <v>48634</v>
       </c>
       <c r="I72" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="J72" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="J72" s="12" t="s">
+      <c r="K72" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="L72" s="12" t="s">
         <v>414</v>
-      </c>
-      <c r="K72" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="L72" s="12" t="s">
-        <v>415</v>
       </c>
       <c r="M72" s="12" t="s">
         <v>240</v>
       </c>
       <c r="N72" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="O72" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="O72" s="12" t="s">
+      <c r="P72" s="12" t="s">
         <v>417</v>
-      </c>
-      <c r="P72" s="12" t="s">
-        <v>418</v>
       </c>
       <c r="Q72" s="12" t="s">
         <v>122</v>
@@ -9329,10 +9326,10 @@
         <v>44469</v>
       </c>
       <c r="AB72" s="124" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC72" s="15" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9343,25 +9340,25 @@
         <v>68</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>243</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H73" s="3">
         <v>49460</v>
       </c>
       <c r="I73" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="J73" s="12" t="s">
         <v>417</v>
-      </c>
-      <c r="J73" s="12" t="s">
-        <v>418</v>
       </c>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
@@ -9397,10 +9394,10 @@
         <v>44227</v>
       </c>
       <c r="AB73" s="124" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC73" s="15" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9411,22 +9408,22 @@
         <v>28</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="F74" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="G74" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="H74" s="3">
         <v>75000</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J74" s="12" t="s">
         <v>70</v>
@@ -9435,7 +9432,7 @@
         <v>240</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M74" s="15"/>
       <c r="N74" s="12"/>
@@ -9469,10 +9466,10 @@
         <v>44616</v>
       </c>
       <c r="AB74" s="124" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AC74" s="15" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9483,7 +9480,7 @@
         <v>28</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>97</v>
@@ -9492,22 +9489,22 @@
         <v>29</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H75" s="3">
         <v>75000</v>
       </c>
       <c r="I75" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="L75" s="12" t="s">
         <v>432</v>
-      </c>
-      <c r="J75" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="K75" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="L75" s="12" t="s">
-        <v>433</v>
       </c>
       <c r="M75" s="15"/>
       <c r="N75" s="12"/>
@@ -9541,10 +9538,10 @@
         <v>44616</v>
       </c>
       <c r="AB75" s="124" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AC75" s="15" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9555,22 +9552,22 @@
         <v>28</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>176</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>437</v>
+        <v>614</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H76" s="3">
         <v>75000</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J76" s="12" t="s">
         <v>180</v>
@@ -9579,7 +9576,7 @@
         <v>181</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M76" s="15"/>
       <c r="N76" s="12"/>
@@ -9613,10 +9610,10 @@
         <v>44616</v>
       </c>
       <c r="AB76" s="124" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AC76" s="15" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9627,29 +9624,29 @@
         <v>28</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>81</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H77" s="3">
         <v>75000</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K77" s="15"/>
       <c r="L77" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
@@ -9683,10 +9680,10 @@
         <v>44616</v>
       </c>
       <c r="AB77" s="124" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AC77" s="133" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9697,7 +9694,7 @@
         <v>28</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>56</v>
@@ -9706,19 +9703,19 @@
         <v>70</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H78" s="3">
         <v>73926</v>
       </c>
       <c r="I78" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="K78" s="12" t="s">
         <v>451</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="K78" s="12" t="s">
-        <v>453</v>
       </c>
       <c r="L78" s="15"/>
       <c r="M78" s="12"/>
@@ -9753,10 +9750,10 @@
         <v>44616</v>
       </c>
       <c r="AB78" s="124" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AC78" s="15" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9767,7 +9764,7 @@
         <v>28</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>176</v>
@@ -9776,23 +9773,23 @@
         <v>181</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H79" s="3">
         <v>75000</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J79" s="12" t="s">
         <v>180</v>
       </c>
       <c r="K79" s="15"/>
       <c r="L79" s="12" t="s">
-        <v>437</v>
+        <v>614</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="N79" s="12"/>
       <c r="O79" s="12"/>
@@ -9828,7 +9825,7 @@
         <v>182</v>
       </c>
       <c r="AC79" s="15" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9839,16 +9836,16 @@
         <v>28</v>
       </c>
       <c r="D80" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="F80" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="G80" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="H80" s="3">
         <v>74895</v>
@@ -9857,10 +9854,10 @@
         <v>81</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L80" s="15"/>
       <c r="M80" s="12"/>
@@ -9895,10 +9892,10 @@
         <v>44616</v>
       </c>
       <c r="AB80" s="124" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AC80" s="15" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9909,16 +9906,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>92</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H81" s="3">
         <v>75000</v>
@@ -9959,10 +9956,10 @@
         <v>44616</v>
       </c>
       <c r="AB81" s="124" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AC81" s="15" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="82" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -9973,22 +9970,22 @@
         <v>28</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>224</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H82" s="3">
         <v>74086</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J82" s="15"/>
       <c r="K82" s="12"/>
@@ -10025,10 +10022,10 @@
         <v>44616</v>
       </c>
       <c r="AB82" s="124" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AC82" s="15" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="83" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10039,7 +10036,7 @@
         <v>28</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>243</v>
@@ -10048,7 +10045,7 @@
         <v>257</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H83" s="3">
         <v>74999.509999999995</v>
@@ -10057,16 +10054,16 @@
         <v>254</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K83" s="12" t="s">
         <v>264</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N83" s="15"/>
       <c r="O83" s="12"/>
@@ -10099,10 +10096,10 @@
         <v>44616</v>
       </c>
       <c r="AB83" s="124" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AC83" s="15" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10113,16 +10110,16 @@
         <v>28</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>243</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H84" s="3">
         <v>72088.37</v>
@@ -10134,10 +10131,10 @@
         <v>348</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M84" s="12"/>
       <c r="N84" s="15"/>
@@ -10171,10 +10168,10 @@
         <v>44616</v>
       </c>
       <c r="AB84" s="124" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AC84" s="15" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="85" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10185,7 +10182,7 @@
         <v>28</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>319</v>
@@ -10194,13 +10191,13 @@
         <v>240</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H85" s="3">
         <v>75000</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J85" s="15"/>
       <c r="K85" s="12"/>
@@ -10240,7 +10237,7 @@
         <v>100</v>
       </c>
       <c r="AC85" s="15" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="86" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10251,16 +10248,16 @@
         <v>28</v>
       </c>
       <c r="D86" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="F86" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="G86" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="H86" s="3">
         <v>74836</v>
@@ -10269,7 +10266,7 @@
         <v>119</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K86" s="15"/>
       <c r="L86" s="12"/>
@@ -10305,10 +10302,10 @@
         <v>44616</v>
       </c>
       <c r="AB86" s="124" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AC86" s="133" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="87" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10320,25 +10317,25 @@
         <v>68</v>
       </c>
       <c r="D87" s="109" t="s">
+        <v>491</v>
+      </c>
+      <c r="E87" t="s">
+        <v>492</v>
+      </c>
+      <c r="F87" s="119" t="s">
         <v>493</v>
       </c>
-      <c r="E87" t="s">
+      <c r="G87" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="F87" s="119" t="s">
-        <v>495</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="H87" s="107">
         <v>74992</v>
       </c>
       <c r="I87" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J87" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K87" s="15"/>
       <c r="L87" s="15"/>
@@ -10374,10 +10371,10 @@
         <v>44294</v>
       </c>
       <c r="AB87" s="15" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="AC87" s="15" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10389,22 +10386,22 @@
         <v>68</v>
       </c>
       <c r="D88" s="109" t="s">
+        <v>497</v>
+      </c>
+      <c r="E88" t="s">
+        <v>498</v>
+      </c>
+      <c r="F88" s="120" t="s">
         <v>499</v>
       </c>
-      <c r="E88" t="s">
+      <c r="G88" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="F88" s="120" t="s">
-        <v>501</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="H88" s="107">
         <v>74973</v>
       </c>
       <c r="I88" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
@@ -10441,10 +10438,10 @@
         <v>44294</v>
       </c>
       <c r="AB88" s="15" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AC88" s="15" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="89" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10456,16 +10453,16 @@
         <v>68</v>
       </c>
       <c r="D89" s="109" t="s">
+        <v>502</v>
+      </c>
+      <c r="E89" t="s">
+        <v>503</v>
+      </c>
+      <c r="F89" s="119" t="s">
         <v>504</v>
       </c>
-      <c r="E89" t="s">
+      <c r="G89" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="F89" s="119" t="s">
-        <v>506</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="H89" s="107">
         <v>35000</v>
@@ -10474,10 +10471,10 @@
         <v>327</v>
       </c>
       <c r="J89" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K89" s="121" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
@@ -10512,10 +10509,10 @@
         <v>44294</v>
       </c>
       <c r="AB89" s="15" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="AC89" s="133" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="90" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10527,37 +10524,37 @@
         <v>68</v>
       </c>
       <c r="D90" s="109" t="s">
+        <v>508</v>
+      </c>
+      <c r="E90" t="s">
+        <v>509</v>
+      </c>
+      <c r="F90" s="122" t="s">
         <v>510</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="F90" s="122" t="s">
-        <v>512</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="H90" s="107">
         <v>33117</v>
       </c>
       <c r="I90" t="s">
+        <v>512</v>
+      </c>
+      <c r="J90" t="s">
+        <v>513</v>
+      </c>
+      <c r="K90" s="121" t="s">
         <v>514</v>
       </c>
-      <c r="J90" t="s">
+      <c r="L90" s="121" t="s">
         <v>515</v>
       </c>
-      <c r="K90" s="121" t="s">
+      <c r="M90" s="121" t="s">
         <v>516</v>
       </c>
-      <c r="L90" s="121" t="s">
+      <c r="N90" s="121" t="s">
         <v>517</v>
-      </c>
-      <c r="M90" s="121" t="s">
-        <v>518</v>
-      </c>
-      <c r="N90" s="121" t="s">
-        <v>519</v>
       </c>
       <c r="O90" s="15"/>
       <c r="P90" s="15"/>
@@ -10589,10 +10586,10 @@
         <v>44294</v>
       </c>
       <c r="AB90" s="15" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="AC90" s="15" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="91" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10604,28 +10601,28 @@
         <v>68</v>
       </c>
       <c r="D91" s="109" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E91" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F91" s="110" t="s">
         <v>119</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H91" s="107">
         <v>75000</v>
       </c>
       <c r="I91" s="119" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J91" s="119" t="s">
         <v>38</v>
       </c>
       <c r="K91" s="119" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L91" t="s">
         <v>92</v>
@@ -10662,10 +10659,10 @@
         <v>44294</v>
       </c>
       <c r="AB91" s="15" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="AC91" s="15" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="92" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10677,16 +10674,16 @@
         <v>68</v>
       </c>
       <c r="D92" s="109" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E92" t="s">
         <v>298</v>
       </c>
       <c r="F92" s="119" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H92" s="107">
         <v>36572</v>
@@ -10695,7 +10692,7 @@
         <v>92</v>
       </c>
       <c r="J92" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K92" s="15"/>
       <c r="L92" s="15"/>
@@ -10731,10 +10728,10 @@
         <v>44294</v>
       </c>
       <c r="AB92" s="15" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="AC92" s="15" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="93" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
@@ -10746,28 +10743,28 @@
         <v>68</v>
       </c>
       <c r="D93" s="109" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E93" t="s">
         <v>327</v>
       </c>
       <c r="F93" s="119" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H93" s="107">
         <v>75000</v>
       </c>
       <c r="I93" t="s">
+        <v>525</v>
+      </c>
+      <c r="J93" t="s">
+        <v>526</v>
+      </c>
+      <c r="K93" t="s">
         <v>527</v>
-      </c>
-      <c r="J93" t="s">
-        <v>528</v>
-      </c>
-      <c r="K93" t="s">
-        <v>529</v>
       </c>
       <c r="L93" s="15"/>
       <c r="M93" s="15"/>
@@ -10802,10 +10799,10 @@
         <v>44294</v>
       </c>
       <c r="AB93" s="15" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="AC93" s="15" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
@@ -10815,14 +10812,14 @@
       <c r="B94" s="108"/>
       <c r="C94" s="117"/>
       <c r="D94" s="109" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E94" s="110" t="s">
         <v>133</v>
       </c>
       <c r="F94" s="110"/>
       <c r="G94" s="117" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H94" s="131">
         <v>49941</v>
@@ -10848,7 +10845,7 @@
       <c r="AA94" s="15"/>
       <c r="AB94" s="15"/>
       <c r="AC94" s="15" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.25">
@@ -10858,14 +10855,14 @@
       <c r="B95" s="108"/>
       <c r="C95" s="117"/>
       <c r="D95" s="109" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E95" s="110" t="s">
         <v>70</v>
       </c>
       <c r="F95" s="110"/>
       <c r="G95" s="117" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H95" s="131">
         <v>48581</v>
@@ -10891,7 +10888,7 @@
       <c r="AA95" s="15"/>
       <c r="AB95" s="15"/>
       <c r="AC95" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
@@ -10902,11 +10899,11 @@
       <c r="C96" s="117"/>
       <c r="D96" s="109"/>
       <c r="E96" s="110" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F96" s="110"/>
       <c r="G96" s="117" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H96" s="131">
         <v>49362</v>
@@ -10968,31 +10965,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="128" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C1" s="128">
         <v>15</v>
       </c>
       <c r="D1" s="128" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E1" s="128">
         <v>29</v>
       </c>
       <c r="F1" s="128" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G1" s="128">
         <v>43</v>
       </c>
       <c r="H1" s="128" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I1" s="128">
         <v>57</v>
       </c>
       <c r="J1" s="128" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -11000,31 +10997,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="128" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C2" s="128">
         <v>16</v>
       </c>
       <c r="D2" s="128" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E2" s="128">
         <v>30</v>
       </c>
       <c r="F2" s="128" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G2" s="128">
         <v>44</v>
       </c>
       <c r="H2" s="128" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I2" s="128">
         <v>58</v>
       </c>
       <c r="J2" s="128" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -11032,25 +11029,25 @@
         <v>3</v>
       </c>
       <c r="B3" s="128" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C3" s="128">
         <v>17</v>
       </c>
       <c r="D3" s="128" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E3" s="128">
         <v>31</v>
       </c>
       <c r="F3" s="128" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G3" s="128">
         <v>45</v>
       </c>
       <c r="H3" s="128" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I3" s="129"/>
       <c r="J3" s="129"/>
@@ -11060,25 +11057,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="128" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C4" s="128">
         <v>18</v>
       </c>
       <c r="D4" s="128" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E4" s="128">
         <v>32</v>
       </c>
       <c r="F4" s="128" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G4" s="128">
         <v>46</v>
       </c>
       <c r="H4" s="128" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I4" s="129"/>
       <c r="J4" s="129"/>
@@ -11088,25 +11085,25 @@
         <v>5</v>
       </c>
       <c r="B5" s="128" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C5" s="128">
         <v>19</v>
       </c>
       <c r="D5" s="128" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E5" s="128">
         <v>33</v>
       </c>
       <c r="F5" s="128" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G5" s="128">
         <v>47</v>
       </c>
       <c r="H5" s="128" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I5" s="129"/>
       <c r="J5" s="129"/>
@@ -11116,25 +11113,25 @@
         <v>6</v>
       </c>
       <c r="B6" s="128" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C6" s="128">
         <v>20</v>
       </c>
       <c r="D6" s="128" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E6" s="128">
         <v>34</v>
       </c>
       <c r="F6" s="128" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G6" s="128">
         <v>48</v>
       </c>
       <c r="H6" s="128" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I6" s="129"/>
       <c r="J6" s="129"/>
@@ -11144,25 +11141,25 @@
         <v>7</v>
       </c>
       <c r="B7" s="128" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C7" s="128">
         <v>21</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E7" s="128">
         <v>35</v>
       </c>
       <c r="F7" s="128" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G7" s="128">
         <v>49</v>
       </c>
       <c r="H7" s="128" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I7" s="129"/>
       <c r="J7" s="129"/>
@@ -11172,25 +11169,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="128" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C8" s="128">
         <v>22</v>
       </c>
       <c r="D8" s="128" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E8" s="128">
         <v>36</v>
       </c>
       <c r="F8" s="128" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G8" s="128">
         <v>50</v>
       </c>
       <c r="H8" s="128" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I8" s="129"/>
       <c r="J8" s="129"/>
@@ -11200,25 +11197,25 @@
         <v>9</v>
       </c>
       <c r="B9" s="128" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C9" s="128">
         <v>23</v>
       </c>
       <c r="D9" s="128" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E9" s="128">
         <v>37</v>
       </c>
       <c r="F9" s="128" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G9" s="128">
         <v>51</v>
       </c>
       <c r="H9" s="128" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I9" s="129"/>
       <c r="J9" s="129"/>
@@ -11228,25 +11225,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="128" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C10" s="128">
         <v>24</v>
       </c>
       <c r="D10" s="128" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E10" s="128">
         <v>38</v>
       </c>
       <c r="F10" s="128" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G10" s="128">
         <v>52</v>
       </c>
       <c r="H10" s="128" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="I10" s="129"/>
       <c r="J10" s="129"/>
@@ -11256,25 +11253,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="128" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C11" s="128">
         <v>25</v>
       </c>
       <c r="D11" s="128" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E11" s="128">
         <v>39</v>
       </c>
       <c r="F11" s="128" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G11" s="128">
         <v>53</v>
       </c>
       <c r="H11" s="128" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I11" s="129"/>
       <c r="J11" s="129"/>
@@ -11284,25 +11281,25 @@
         <v>12</v>
       </c>
       <c r="B12" s="128" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C12" s="128">
         <v>26</v>
       </c>
       <c r="D12" s="128" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E12" s="128">
         <v>40</v>
       </c>
       <c r="F12" s="128" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G12" s="128">
         <v>54</v>
       </c>
       <c r="H12" s="128" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I12" s="129"/>
       <c r="J12" s="129"/>
@@ -11312,25 +11309,25 @@
         <v>13</v>
       </c>
       <c r="B13" s="128" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C13" s="128">
         <v>27</v>
       </c>
       <c r="D13" s="128" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E13" s="128">
         <v>41</v>
       </c>
       <c r="F13" s="128" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G13" s="128">
         <v>55</v>
       </c>
       <c r="H13" s="128" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="I13" s="129"/>
       <c r="J13" s="129"/>
@@ -11340,25 +11337,25 @@
         <v>14</v>
       </c>
       <c r="B14" s="128" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C14" s="128">
         <v>28</v>
       </c>
       <c r="D14" s="128" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E14" s="128">
         <v>42</v>
       </c>
       <c r="F14" s="128" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G14" s="128">
         <v>56</v>
       </c>
       <c r="H14" s="128" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I14" s="129"/>
       <c r="J14" s="129"/>
@@ -11422,13 +11419,13 @@
         <v>28</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G2" s="23">
         <v>49957</v>
@@ -11445,7 +11442,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>37</v>
@@ -11491,7 +11488,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>43</v>
@@ -11514,7 +11511,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>49</v>
@@ -11537,7 +11534,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>55</v>
@@ -11560,7 +11557,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>60</v>
@@ -11579,7 +11576,7 @@
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>64</v>
@@ -11602,7 +11599,7 @@
         <v>68</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>70</v>
@@ -11904,7 +11901,7 @@
         <v>142</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F23" s="80" t="s">
         <v>144</v>
@@ -12379,7 +12376,7 @@
         <v>247</v>
       </c>
       <c r="E44" s="87" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F44" s="85" t="s">
         <v>249</v>
@@ -12417,7 +12414,7 @@
         <v>267</v>
       </c>
       <c r="E46" s="87" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F46" s="85" t="s">
         <v>268</v>
@@ -12471,7 +12468,7 @@
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="38" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E49" s="37" t="s">
         <v>150</v>
@@ -12490,7 +12487,7 @@
       <c r="B50" s="35"/>
       <c r="C50" s="34"/>
       <c r="D50" s="35" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E50" s="84" t="s">
         <v>288</v>
@@ -12509,7 +12506,7 @@
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="38" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E51" s="37" t="s">
         <v>213</v>
@@ -12622,7 +12619,7 @@
       </c>
       <c r="B57" s="45"/>
       <c r="D57" s="46" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E57" s="89" t="s">
         <v>279</v>
@@ -12640,7 +12637,7 @@
       </c>
       <c r="B58" s="45"/>
       <c r="D58" s="48" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E58" s="91" t="s">
         <v>254</v>
@@ -12659,7 +12656,7 @@
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
       <c r="D59" s="46" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E59" s="93" t="s">
         <v>348</v>
@@ -12678,13 +12675,13 @@
       <c r="B60" s="43"/>
       <c r="C60" s="44"/>
       <c r="D60" s="48" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E60" s="95" t="s">
+        <v>355</v>
+      </c>
+      <c r="F60" s="96" t="s">
         <v>356</v>
-      </c>
-      <c r="F60" s="96" t="s">
-        <v>357</v>
       </c>
       <c r="G60" s="49">
         <v>60000</v>
@@ -12697,13 +12694,13 @@
       <c r="B61" s="43"/>
       <c r="C61" s="44"/>
       <c r="D61" s="46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E61" s="93" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F61" s="94" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G61" s="49">
         <v>32000</v>
@@ -12716,13 +12713,13 @@
       <c r="B62" s="43"/>
       <c r="C62" s="44"/>
       <c r="D62" s="48" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E62" s="95" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F62" s="96" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G62" s="51">
         <v>45004</v>
@@ -12735,13 +12732,13 @@
       <c r="B63" s="52"/>
       <c r="C63" s="53"/>
       <c r="D63" s="46" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E63" s="93" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F63" s="94" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G63" s="49">
         <v>15000</v>
@@ -12754,13 +12751,13 @@
       <c r="B64" s="43"/>
       <c r="C64" s="44"/>
       <c r="D64" s="48" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E64" s="95" t="s">
         <v>85</v>
       </c>
       <c r="F64" s="96" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G64" s="49">
         <v>47050</v>
@@ -12773,13 +12770,13 @@
       <c r="B65" s="54"/>
       <c r="C65" s="55"/>
       <c r="D65" s="56" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E65" s="93" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F65" s="94" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G65" s="51">
         <v>35000</v>
@@ -12792,13 +12789,13 @@
       <c r="B66" s="43"/>
       <c r="C66" s="44"/>
       <c r="D66" s="57" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E66" s="95" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F66" s="96" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G66" s="51">
         <v>10000</v>
@@ -12811,13 +12808,13 @@
       <c r="B67" s="43"/>
       <c r="C67" s="44"/>
       <c r="D67" s="56" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E67" s="93" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F67" s="94" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G67" s="51">
         <v>60000</v>
@@ -12830,13 +12827,13 @@
       <c r="B68" s="59"/>
       <c r="C68" s="60"/>
       <c r="D68" s="57" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E68" s="95" t="s">
+        <v>394</v>
+      </c>
+      <c r="F68" s="96" t="s">
         <v>395</v>
-      </c>
-      <c r="F68" s="96" t="s">
-        <v>396</v>
       </c>
       <c r="G68" s="61">
         <v>50000</v>
@@ -12849,13 +12846,13 @@
       <c r="B69" s="63"/>
       <c r="C69" s="64"/>
       <c r="D69" s="56" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E69" s="93" t="s">
         <v>235</v>
       </c>
       <c r="F69" s="94" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G69" s="65">
         <v>60000</v>
@@ -12868,13 +12865,13 @@
       <c r="B70" s="43"/>
       <c r="C70" s="44"/>
       <c r="D70" s="66" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E70" s="97" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F70" s="98" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G70" s="67">
         <v>55000</v>
@@ -12887,13 +12884,13 @@
       <c r="B71" s="45"/>
       <c r="C71" s="45"/>
       <c r="D71" s="43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E71" s="99" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F71" s="99" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G71" s="69">
         <v>48634</v>
@@ -12906,13 +12903,13 @@
       <c r="B72" s="45"/>
       <c r="C72" s="45"/>
       <c r="D72" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="E72" s="99" t="s">
+        <v>559</v>
+      </c>
+      <c r="F72" s="94" t="s">
         <v>420</v>
-      </c>
-      <c r="E72" s="99" t="s">
-        <v>561</v>
-      </c>
-      <c r="F72" s="94" t="s">
-        <v>421</v>
       </c>
       <c r="G72" s="65">
         <v>49460</v>
@@ -12920,18 +12917,18 @@
     </row>
     <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B73" s="70"/>
       <c r="C73" s="70"/>
       <c r="D73" s="71" t="s">
+        <v>421</v>
+      </c>
+      <c r="E73" s="72" t="s">
         <v>422</v>
       </c>
-      <c r="E73" s="72" t="s">
-        <v>423</v>
-      </c>
       <c r="F73" s="72" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G73" s="100">
         <v>75000</v>
@@ -12939,18 +12936,18 @@
     </row>
     <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B74" s="73"/>
       <c r="C74" s="70"/>
       <c r="D74" s="74" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E74" s="75" t="s">
         <v>97</v>
       </c>
       <c r="F74" s="75" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G74" s="101">
         <v>75000</v>
@@ -12958,18 +12955,18 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B75" s="76"/>
       <c r="C75" s="77"/>
       <c r="D75" s="71" t="s">
+        <v>434</v>
+      </c>
+      <c r="E75" s="72" t="s">
         <v>435</v>
       </c>
-      <c r="E75" s="72" t="s">
+      <c r="F75" s="72" t="s">
         <v>436</v>
-      </c>
-      <c r="F75" s="72" t="s">
-        <v>438</v>
       </c>
       <c r="G75" s="100">
         <v>75000</v>
@@ -12977,18 +12974,18 @@
     </row>
     <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B76" s="73"/>
       <c r="C76" s="70"/>
       <c r="D76" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="E76" s="75" t="s">
+        <v>441</v>
+      </c>
+      <c r="F76" s="75" t="s">
         <v>442</v>
-      </c>
-      <c r="E76" s="75" t="s">
-        <v>443</v>
-      </c>
-      <c r="F76" s="75" t="s">
-        <v>444</v>
       </c>
       <c r="G76" s="101">
         <v>75000</v>
@@ -12996,17 +12993,17 @@
     </row>
     <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B77" s="45"/>
       <c r="D77" s="71" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E77" s="72" t="s">
         <v>56</v>
       </c>
       <c r="F77" s="72" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G77" s="100">
         <v>73926</v>
@@ -13014,16 +13011,16 @@
     </row>
     <row r="78" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D78" s="74" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E78" s="75" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F78" s="75" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G78" s="101">
         <v>75000</v>
@@ -13031,17 +13028,17 @@
     </row>
     <row r="79" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B79" s="45"/>
       <c r="D79" s="71" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E79" s="72" t="s">
+        <v>456</v>
+      </c>
+      <c r="F79" s="72" t="s">
         <v>458</v>
-      </c>
-      <c r="F79" s="72" t="s">
-        <v>460</v>
       </c>
       <c r="G79" s="100">
         <v>74895</v>
@@ -13049,17 +13046,17 @@
     </row>
     <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B80" s="45"/>
       <c r="D80" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="E80" s="75" t="s">
+        <v>561</v>
+      </c>
+      <c r="F80" s="75" t="s">
         <v>463</v>
-      </c>
-      <c r="E80" s="75" t="s">
-        <v>563</v>
-      </c>
-      <c r="F80" s="75" t="s">
-        <v>465</v>
       </c>
       <c r="G80" s="101">
         <v>75000</v>
@@ -13067,17 +13064,17 @@
     </row>
     <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B81" s="45"/>
       <c r="D81" s="71" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E81" s="78" t="s">
         <v>224</v>
       </c>
       <c r="F81" s="72" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G81" s="100">
         <v>74086</v>
@@ -13085,17 +13082,17 @@
     </row>
     <row r="82" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B82" s="45"/>
       <c r="D82" s="74" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E82" s="79" t="s">
         <v>243</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G82" s="101">
         <v>74999.509999999995</v>
@@ -13103,17 +13100,17 @@
     </row>
     <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B83" s="45"/>
       <c r="D83" s="71" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E83" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="F83" s="72" t="s">
         <v>478</v>
-      </c>
-      <c r="F83" s="72" t="s">
-        <v>480</v>
       </c>
       <c r="G83" s="100">
         <v>72088.37</v>
@@ -13121,17 +13118,17 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B84" s="45"/>
       <c r="D84" s="74" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E84" s="75" t="s">
         <v>319</v>
       </c>
       <c r="F84" s="75" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G84" s="101">
         <v>75000</v>
@@ -13139,17 +13136,17 @@
     </row>
     <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B85" s="45"/>
       <c r="D85" s="71" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E85" s="72" t="s">
+        <v>486</v>
+      </c>
+      <c r="F85" s="72" t="s">
         <v>488</v>
-      </c>
-      <c r="F85" s="72" t="s">
-        <v>490</v>
       </c>
       <c r="G85" s="100">
         <v>74836</v>
@@ -13278,16 +13275,16 @@
         <v>2014</v>
       </c>
       <c r="C2" s="104" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D2" s="104" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E2" s="104" t="s">
         <v>104</v>
       </c>
       <c r="F2" s="104" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G2" s="104">
         <v>45467</v>
@@ -13298,13 +13295,13 @@
         <v>2014</v>
       </c>
       <c r="C3" s="104" t="s">
+        <v>565</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>566</v>
+      </c>
+      <c r="F3" s="104" t="s">
         <v>567</v>
-      </c>
-      <c r="D3" s="104" t="s">
-        <v>568</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>569</v>
       </c>
       <c r="G3" s="104">
         <v>30904</v>
@@ -13315,16 +13312,16 @@
         <v>2014</v>
       </c>
       <c r="C4" s="104" t="s">
+        <v>568</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>569</v>
+      </c>
+      <c r="E4" s="104" t="s">
         <v>570</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="F4" s="104" t="s">
         <v>571</v>
-      </c>
-      <c r="E4" s="104" t="s">
-        <v>572</v>
-      </c>
-      <c r="F4" s="104" t="s">
-        <v>573</v>
       </c>
       <c r="G4" s="104">
         <v>41324</v>
@@ -13335,25 +13332,25 @@
         <v>2014</v>
       </c>
       <c r="C5" s="104" t="s">
+        <v>572</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>441</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>573</v>
+      </c>
+      <c r="F5" s="104" t="s">
         <v>574</v>
-      </c>
-      <c r="D5" s="104" t="s">
-        <v>443</v>
-      </c>
-      <c r="E5" s="104" t="s">
-        <v>575</v>
-      </c>
-      <c r="F5" s="104" t="s">
-        <v>576</v>
       </c>
       <c r="G5" s="104">
         <v>101047</v>
       </c>
       <c r="H5" s="104" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I5" s="104" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -13361,7 +13358,7 @@
         <v>2014</v>
       </c>
       <c r="C6" s="104" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D6" s="104" t="s">
         <v>137</v>
@@ -13370,7 +13367,7 @@
         <v>150</v>
       </c>
       <c r="F6" s="104" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G6" s="104">
         <v>60020</v>
@@ -13384,7 +13381,7 @@
         <v>2014</v>
       </c>
       <c r="C7" s="104" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D7" s="104" t="s">
         <v>29</v>
@@ -13393,7 +13390,7 @@
         <v>284</v>
       </c>
       <c r="F7" s="104" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G7" s="104">
         <v>49993</v>
@@ -13407,13 +13404,13 @@
         <v>2014</v>
       </c>
       <c r="C8" s="104" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D8" s="104" t="s">
         <v>118</v>
       </c>
       <c r="F8" s="104" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G8" s="104">
         <v>49247</v>
@@ -13424,7 +13421,7 @@
         <v>2014</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D9" s="104" t="s">
         <v>37</v>
@@ -13433,7 +13430,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="104" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G9" s="104">
         <v>48909</v>
@@ -13444,16 +13441,16 @@
         <v>2014</v>
       </c>
       <c r="C10" s="104" t="s">
+        <v>585</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>586</v>
+      </c>
+      <c r="E10" s="104" t="s">
         <v>587</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="F10" s="104" t="s">
         <v>588</v>
-      </c>
-      <c r="E10" s="104" t="s">
-        <v>589</v>
-      </c>
-      <c r="F10" s="104" t="s">
-        <v>590</v>
       </c>
       <c r="G10" s="104">
         <v>50000</v>
@@ -13464,22 +13461,22 @@
         <v>2014</v>
       </c>
       <c r="C11" s="104" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D11" s="104" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E11" s="104" t="s">
         <v>85</v>
       </c>
       <c r="F11" s="104" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G11" s="104">
         <v>96000</v>
       </c>
       <c r="H11" s="104" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -13487,16 +13484,16 @@
         <v>2014</v>
       </c>
       <c r="C12" s="104" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D12" s="104" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F12" s="104" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G12" s="104">
         <v>49906</v>
@@ -13510,16 +13507,16 @@
         <v>28</v>
       </c>
       <c r="C13" s="104" t="s">
+        <v>595</v>
+      </c>
+      <c r="D13" s="104" t="s">
+        <v>596</v>
+      </c>
+      <c r="E13" s="104" t="s">
         <v>597</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="F13" s="104" t="s">
         <v>598</v>
-      </c>
-      <c r="E13" s="104" t="s">
-        <v>599</v>
-      </c>
-      <c r="F13" s="104" t="s">
-        <v>600</v>
       </c>
       <c r="G13" s="104">
         <v>50000</v>
@@ -13533,7 +13530,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D14" s="104" t="s">
         <v>176</v>
@@ -13542,7 +13539,7 @@
         <v>178</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H14" s="104" t="s">
         <v>180</v>
@@ -13556,16 +13553,16 @@
         <v>28</v>
       </c>
       <c r="C15" s="104" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D15" s="104" t="s">
         <v>156</v>
       </c>
       <c r="E15" s="104" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F15" s="104" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -13579,7 +13576,7 @@
         <v>334</v>
       </c>
       <c r="F16" s="104" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -13593,16 +13590,16 @@
         <v>37</v>
       </c>
       <c r="E17" s="104" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F17" s="104" t="s">
         <v>268</v>
       </c>
       <c r="H17" s="104" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I17" s="104" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -13613,10 +13610,10 @@
         <v>28</v>
       </c>
       <c r="D18" s="104" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F18" s="104" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -13627,7 +13624,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="104" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D19" s="104" t="s">
         <v>230</v>
@@ -13636,7 +13633,7 @@
         <v>127</v>
       </c>
       <c r="F19" s="104" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G19" s="104">
         <v>69960</v>
@@ -13653,7 +13650,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D20" s="104" t="s">
         <v>150</v>
@@ -13662,7 +13659,7 @@
         <v>284</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G20" s="104">
         <v>76098</v>
@@ -13711,19 +13708,19 @@
         <v>28</v>
       </c>
       <c r="C22" s="104" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D22" s="104" t="s">
         <v>127</v>
       </c>
       <c r="E22" s="104" t="s">
+        <v>614</v>
+      </c>
+      <c r="F22" s="104" t="s">
+        <v>615</v>
+      </c>
+      <c r="H22" s="104" t="s">
         <v>616</v>
-      </c>
-      <c r="F22" s="104" t="s">
-        <v>617</v>
-      </c>
-      <c r="H22" s="104" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -13734,7 +13731,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="104" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D23" s="104" t="s">
         <v>178</v>
@@ -13743,7 +13740,7 @@
         <v>319</v>
       </c>
       <c r="F23" s="104" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G23" s="104">
         <v>95834</v>
@@ -13757,25 +13754,25 @@
         <v>28</v>
       </c>
       <c r="C24" s="104" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D24" s="104" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="104" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F24" s="104" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G24" s="104">
         <v>2017692</v>
       </c>
       <c r="H24" s="104" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I24" s="104" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J24" s="104" t="s">
         <v>136</v>
@@ -13784,7 +13781,7 @@
         <v>240</v>
       </c>
       <c r="L24" s="104" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -13795,16 +13792,16 @@
         <v>28</v>
       </c>
       <c r="C25" s="104" t="s">
+        <v>625</v>
+      </c>
+      <c r="D25" s="104" t="s">
+        <v>626</v>
+      </c>
+      <c r="E25" s="104" t="s">
         <v>627</v>
       </c>
-      <c r="D25" s="104" t="s">
+      <c r="F25" s="104" t="s">
         <v>628</v>
-      </c>
-      <c r="E25" s="104" t="s">
-        <v>629</v>
-      </c>
-      <c r="F25" s="104" t="s">
-        <v>630</v>
       </c>
       <c r="G25" s="104">
         <v>91750</v>
@@ -13818,28 +13815,28 @@
         <v>28</v>
       </c>
       <c r="C26" s="104" t="s">
+        <v>629</v>
+      </c>
+      <c r="D26" s="104" t="s">
+        <v>630</v>
+      </c>
+      <c r="E26" s="104" t="s">
         <v>631</v>
       </c>
-      <c r="D26" s="104" t="s">
+      <c r="F26" s="104" t="s">
         <v>632</v>
-      </c>
-      <c r="E26" s="104" t="s">
-        <v>633</v>
-      </c>
-      <c r="F26" s="104" t="s">
-        <v>634</v>
       </c>
       <c r="G26" s="104">
         <v>109971.4</v>
       </c>
       <c r="H26" s="104" t="s">
+        <v>633</v>
+      </c>
+      <c r="I26" s="104" t="s">
+        <v>634</v>
+      </c>
+      <c r="J26" s="104" t="s">
         <v>635</v>
-      </c>
-      <c r="I26" s="104" t="s">
-        <v>636</v>
-      </c>
-      <c r="J26" s="104" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -13850,22 +13847,22 @@
         <v>28</v>
       </c>
       <c r="C27" s="104" t="s">
+        <v>636</v>
+      </c>
+      <c r="D27" s="104" t="s">
+        <v>637</v>
+      </c>
+      <c r="E27" s="104" t="s">
         <v>638</v>
       </c>
-      <c r="D27" s="104" t="s">
+      <c r="F27" s="104" t="s">
         <v>639</v>
-      </c>
-      <c r="E27" s="104" t="s">
-        <v>640</v>
-      </c>
-      <c r="F27" s="104" t="s">
-        <v>641</v>
       </c>
       <c r="G27" s="104">
         <v>78679</v>
       </c>
       <c r="H27" s="104" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I27" s="104" t="s">
         <v>243</v>
@@ -13879,22 +13876,22 @@
         <v>28</v>
       </c>
       <c r="C28" s="104" t="s">
+        <v>641</v>
+      </c>
+      <c r="D28" s="104" t="s">
+        <v>642</v>
+      </c>
+      <c r="E28" s="104" t="s">
+        <v>605</v>
+      </c>
+      <c r="F28" s="104" t="s">
         <v>643</v>
-      </c>
-      <c r="D28" s="104" t="s">
-        <v>644</v>
-      </c>
-      <c r="E28" s="104" t="s">
-        <v>607</v>
-      </c>
-      <c r="F28" s="104" t="s">
-        <v>645</v>
       </c>
       <c r="G28" s="104">
         <v>54871</v>
       </c>
       <c r="H28" s="104" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -13905,22 +13902,22 @@
         <v>28</v>
       </c>
       <c r="C29" s="104" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D29" s="104" t="s">
         <v>243</v>
       </c>
       <c r="E29" s="104" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F29" s="104" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G29" s="104">
         <v>116779.08</v>
       </c>
       <c r="H29" s="104" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -13931,25 +13928,25 @@
         <v>28</v>
       </c>
       <c r="C30" s="104" t="s">
+        <v>648</v>
+      </c>
+      <c r="D30" s="104" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30" s="104" t="s">
+        <v>649</v>
+      </c>
+      <c r="F30" s="104" t="s">
         <v>650</v>
-      </c>
-      <c r="D30" s="104" t="s">
-        <v>382</v>
-      </c>
-      <c r="E30" s="104" t="s">
-        <v>651</v>
-      </c>
-      <c r="F30" s="104" t="s">
-        <v>652</v>
       </c>
       <c r="G30" s="104">
         <v>93749</v>
       </c>
       <c r="H30" s="104" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I30" s="104" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -13960,7 +13957,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="104" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D31" s="104" t="s">
         <v>56</v>
@@ -13969,7 +13966,7 @@
         <v>70</v>
       </c>
       <c r="F31" s="104" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G31" s="104">
         <v>13503</v>
@@ -13983,7 +13980,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="104" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D32" s="104" t="s">
         <v>295</v>
@@ -13992,16 +13989,16 @@
         <v>213</v>
       </c>
       <c r="F32" s="104" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G32" s="104">
         <v>129304</v>
       </c>
       <c r="H32" s="104" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I32" s="104" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="J32" s="104" t="s">
         <v>297</v>
@@ -14015,25 +14012,25 @@
         <v>28</v>
       </c>
       <c r="C33" s="104" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D33" s="104" t="s">
         <v>159</v>
       </c>
       <c r="E33" s="104" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F33" s="104" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G33" s="104">
         <v>65084</v>
       </c>
       <c r="H33" s="104" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I33" s="104" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -14044,7 +14041,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="104" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D34" s="104" t="s">
         <v>243</v>
@@ -14053,7 +14050,7 @@
         <v>159</v>
       </c>
       <c r="F34" s="104" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G34" s="104">
         <v>120009.5</v>
@@ -14065,7 +14062,7 @@
         <v>122</v>
       </c>
       <c r="J34" s="104" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -14076,22 +14073,22 @@
         <v>28</v>
       </c>
       <c r="C35" s="104" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D35" s="104" t="s">
         <v>184</v>
       </c>
       <c r="E35" s="104" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F35" s="104" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G35" s="104">
         <v>50000</v>
       </c>
       <c r="H35" s="104" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -14102,25 +14099,25 @@
         <v>28</v>
       </c>
       <c r="C36" s="104" t="s">
+        <v>669</v>
+      </c>
+      <c r="D36" s="104" t="s">
+        <v>670</v>
+      </c>
+      <c r="E36" s="104" t="s">
         <v>671</v>
       </c>
-      <c r="D36" s="104" t="s">
+      <c r="F36" s="104" t="s">
         <v>672</v>
-      </c>
-      <c r="E36" s="104" t="s">
-        <v>673</v>
-      </c>
-      <c r="F36" s="104" t="s">
-        <v>674</v>
       </c>
       <c r="G36" s="104">
         <v>59656</v>
       </c>
       <c r="H36" s="104" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I36" s="104" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J36" s="104" t="s">
         <v>56</v>
@@ -14134,22 +14131,22 @@
         <v>28</v>
       </c>
       <c r="C37" s="104" t="s">
+        <v>674</v>
+      </c>
+      <c r="D37" s="104" t="s">
+        <v>675</v>
+      </c>
+      <c r="E37" s="104" t="s">
+        <v>501</v>
+      </c>
+      <c r="F37" s="104" t="s">
         <v>676</v>
-      </c>
-      <c r="D37" s="104" t="s">
-        <v>677</v>
-      </c>
-      <c r="E37" s="104" t="s">
-        <v>503</v>
-      </c>
-      <c r="F37" s="104" t="s">
-        <v>678</v>
       </c>
       <c r="G37" s="104">
         <v>56518</v>
       </c>
       <c r="H37" s="104" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I37" s="104" t="s">
         <v>298</v>
@@ -14163,16 +14160,16 @@
         <v>28</v>
       </c>
       <c r="C38" s="104" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D38" s="104" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E38" s="104" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F38" s="104" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G38" s="104">
         <v>45977</v>
@@ -14186,16 +14183,16 @@
         <v>28</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D39" s="104" t="s">
         <v>159</v>
       </c>
       <c r="E39" s="104" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F39" s="104" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G39" s="104">
         <v>81229</v>
@@ -14212,16 +14209,16 @@
         <v>28</v>
       </c>
       <c r="C40" s="104" t="s">
+        <v>681</v>
+      </c>
+      <c r="D40" s="104" t="s">
+        <v>682</v>
+      </c>
+      <c r="E40" s="104" t="s">
         <v>683</v>
       </c>
-      <c r="D40" s="104" t="s">
+      <c r="F40" s="104" t="s">
         <v>684</v>
-      </c>
-      <c r="E40" s="104" t="s">
-        <v>685</v>
-      </c>
-      <c r="F40" s="104" t="s">
-        <v>686</v>
       </c>
       <c r="G40" s="104">
         <v>50000</v>
@@ -14230,7 +14227,7 @@
         <v>44</v>
       </c>
       <c r="I40" s="104" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J40" s="104" t="s">
         <v>243</v>
@@ -14244,7 +14241,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="104" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D41" s="104" t="s">
         <v>159</v>
@@ -14253,7 +14250,7 @@
         <v>213</v>
       </c>
       <c r="F41" s="104" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G41" s="104">
         <v>69482</v>
@@ -14273,22 +14270,22 @@
         <v>28</v>
       </c>
       <c r="C42" s="104" t="s">
+        <v>687</v>
+      </c>
+      <c r="D42" s="104" t="s">
+        <v>688</v>
+      </c>
+      <c r="E42" s="104" t="s">
         <v>689</v>
       </c>
-      <c r="D42" s="104" t="s">
+      <c r="F42" s="104" t="s">
         <v>690</v>
-      </c>
-      <c r="E42" s="104" t="s">
-        <v>691</v>
-      </c>
-      <c r="F42" s="104" t="s">
-        <v>692</v>
       </c>
       <c r="G42" s="104">
         <v>118402.42</v>
       </c>
       <c r="H42" s="104" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I42" s="104" t="s">
         <v>319</v>
@@ -14297,7 +14294,7 @@
         <v>46</v>
       </c>
       <c r="K42" s="104" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -14308,7 +14305,7 @@
         <v>28</v>
       </c>
       <c r="C43" s="104" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D43" s="104" t="s">
         <v>243</v>
@@ -14317,16 +14314,16 @@
         <v>159</v>
       </c>
       <c r="F43" s="104" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G43" s="104">
         <v>59605</v>
       </c>
       <c r="H43" s="104" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I43" s="104" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -14337,22 +14334,22 @@
         <v>28</v>
       </c>
       <c r="C44" s="104" t="s">
+        <v>695</v>
+      </c>
+      <c r="D44" s="104" t="s">
+        <v>626</v>
+      </c>
+      <c r="E44" s="104" t="s">
+        <v>696</v>
+      </c>
+      <c r="F44" s="104" t="s">
         <v>697</v>
-      </c>
-      <c r="D44" s="104" t="s">
-        <v>628</v>
-      </c>
-      <c r="E44" s="104" t="s">
-        <v>698</v>
-      </c>
-      <c r="F44" s="104" t="s">
-        <v>699</v>
       </c>
       <c r="G44" s="104">
         <v>74869</v>
       </c>
       <c r="H44" s="104" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -14363,31 +14360,31 @@
         <v>28</v>
       </c>
       <c r="C45" s="104" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D45" s="104" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E45" s="104" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F45" s="104" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G45" s="105">
         <v>126310.39999999999</v>
       </c>
       <c r="H45" s="104" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I45" s="104" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J45" s="104" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K45" s="104" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -14398,16 +14395,16 @@
         <v>28</v>
       </c>
       <c r="C46" s="104" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D46" s="104" t="s">
         <v>298</v>
       </c>
       <c r="E46" s="104" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F46" s="104" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G46" s="104">
         <v>81357</v>
@@ -14421,16 +14418,16 @@
         <v>28</v>
       </c>
       <c r="C47" s="104" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D47" s="104" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E47" s="104" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F47" s="104" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G47" s="104">
         <v>77807</v>
@@ -14450,22 +14447,22 @@
         <v>68</v>
       </c>
       <c r="C48" s="104" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D48" s="104" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E48" s="104" t="s">
         <v>243</v>
       </c>
       <c r="F48" s="104" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G48" s="104">
         <v>75000</v>
       </c>
       <c r="H48" s="104" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I48" s="104" t="s">
         <v>284</v>
@@ -14479,40 +14476,40 @@
         <v>68</v>
       </c>
       <c r="C49" s="104" t="s">
+        <v>710</v>
+      </c>
+      <c r="D49" s="104" t="s">
+        <v>711</v>
+      </c>
+      <c r="E49" s="104" t="s">
         <v>712</v>
       </c>
-      <c r="D49" s="104" t="s">
+      <c r="F49" s="104" t="s">
         <v>713</v>
-      </c>
-      <c r="E49" s="104" t="s">
-        <v>714</v>
-      </c>
-      <c r="F49" s="104" t="s">
-        <v>715</v>
       </c>
       <c r="G49" s="104">
         <v>40820</v>
       </c>
       <c r="H49" s="104" t="s">
+        <v>714</v>
+      </c>
+      <c r="I49" s="104" t="s">
+        <v>715</v>
+      </c>
+      <c r="J49" s="104" t="s">
         <v>716</v>
       </c>
-      <c r="I49" s="104" t="s">
+      <c r="K49" s="104" t="s">
         <v>717</v>
       </c>
-      <c r="J49" s="104" t="s">
+      <c r="L49" s="104" t="s">
         <v>718</v>
       </c>
-      <c r="K49" s="104" t="s">
+      <c r="M49" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="L49" s="104" t="s">
+      <c r="N49" s="104" t="s">
         <v>720</v>
-      </c>
-      <c r="M49" s="104" t="s">
-        <v>721</v>
-      </c>
-      <c r="N49" s="104" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -14523,7 +14520,7 @@
         <v>68</v>
       </c>
       <c r="C50" s="104" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D50" s="104" t="s">
         <v>176</v>
@@ -14532,7 +14529,7 @@
         <v>178</v>
       </c>
       <c r="F50" s="104" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G50" s="104">
         <v>70000</v>
@@ -14544,7 +14541,7 @@
         <v>181</v>
       </c>
       <c r="J50" s="104" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -14555,22 +14552,22 @@
         <v>68</v>
       </c>
       <c r="C51" s="104" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D51" s="104" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E51" s="104" t="s">
         <v>118</v>
       </c>
       <c r="F51" s="104" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G51" s="104">
         <v>75250</v>
       </c>
       <c r="H51" s="104" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I51" s="104" t="s">
         <v>119</v>
@@ -14584,31 +14581,31 @@
         <v>68</v>
       </c>
       <c r="C52" s="104" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D52" s="104" t="s">
         <v>299</v>
       </c>
       <c r="E52" s="104" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F52" s="104" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G52" s="104">
         <v>75000</v>
       </c>
       <c r="H52" s="104" t="s">
+        <v>729</v>
+      </c>
+      <c r="I52" s="104" t="s">
+        <v>730</v>
+      </c>
+      <c r="J52" s="104" t="s">
         <v>731</v>
       </c>
-      <c r="I52" s="104" t="s">
-        <v>732</v>
-      </c>
-      <c r="J52" s="104" t="s">
-        <v>733</v>
-      </c>
       <c r="K52" s="104" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -14619,25 +14616,25 @@
         <v>68</v>
       </c>
       <c r="C53" s="104" t="s">
+        <v>732</v>
+      </c>
+      <c r="D53" s="104" t="s">
+        <v>733</v>
+      </c>
+      <c r="E53" s="104" t="s">
         <v>734</v>
       </c>
-      <c r="D53" s="104" t="s">
+      <c r="F53" s="104" t="s">
         <v>735</v>
-      </c>
-      <c r="E53" s="104" t="s">
-        <v>736</v>
-      </c>
-      <c r="F53" s="104" t="s">
-        <v>737</v>
       </c>
       <c r="G53" s="104">
         <v>74641</v>
       </c>
       <c r="H53" s="104" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I53" s="104" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -14648,7 +14645,7 @@
         <v>68</v>
       </c>
       <c r="C54" s="104" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D54" s="104" t="s">
         <v>210</v>
@@ -14657,7 +14654,7 @@
         <v>212</v>
       </c>
       <c r="F54" s="104" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G54" s="104">
         <v>75000</v>
@@ -14674,22 +14671,22 @@
         <v>68</v>
       </c>
       <c r="C55" s="104" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D55" s="104" t="s">
         <v>298</v>
       </c>
       <c r="E55" s="104" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F55" s="104" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G55" s="106">
         <v>65704.160000000003</v>
       </c>
       <c r="H55" s="104" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I55" s="104" t="s">
         <v>257</v>
@@ -14703,16 +14700,16 @@
         <v>68</v>
       </c>
       <c r="C56" s="104" t="s">
+        <v>741</v>
+      </c>
+      <c r="D56" s="104" t="s">
+        <v>742</v>
+      </c>
+      <c r="E56" s="104" t="s">
         <v>743</v>
       </c>
-      <c r="D56" s="104" t="s">
+      <c r="F56" s="104" t="s">
         <v>744</v>
-      </c>
-      <c r="E56" s="104" t="s">
-        <v>745</v>
-      </c>
-      <c r="F56" s="104" t="s">
-        <v>746</v>
       </c>
       <c r="G56" s="104">
         <v>75000</v>
@@ -14732,25 +14729,25 @@
         <v>68</v>
       </c>
       <c r="C57" s="104" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D57" s="104" t="s">
         <v>56</v>
       </c>
       <c r="E57" s="104" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F57" s="104" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G57" s="104">
         <v>49500</v>
       </c>
       <c r="H57" s="104" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I57" s="104" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -14761,25 +14758,25 @@
         <v>28</v>
       </c>
       <c r="C58" s="107" t="s">
+        <v>748</v>
+      </c>
+      <c r="D58" s="104" t="s">
+        <v>626</v>
+      </c>
+      <c r="E58" s="104" t="s">
+        <v>749</v>
+      </c>
+      <c r="F58" s="104" t="s">
         <v>750</v>
-      </c>
-      <c r="D58" s="104" t="s">
-        <v>628</v>
-      </c>
-      <c r="E58" s="104" t="s">
-        <v>751</v>
-      </c>
-      <c r="F58" s="104" t="s">
-        <v>752</v>
       </c>
       <c r="G58" s="104">
         <v>75000</v>
       </c>
       <c r="H58" s="104" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I58" s="104" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -14790,25 +14787,25 @@
         <v>28</v>
       </c>
       <c r="C59" s="107" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D59" s="104" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E59" s="104" t="s">
+        <v>637</v>
+      </c>
+      <c r="F59" s="104" t="s">
         <v>639</v>
-      </c>
-      <c r="F59" s="104" t="s">
-        <v>641</v>
       </c>
       <c r="G59" s="104">
         <v>74081</v>
       </c>
       <c r="H59" s="104" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I59" s="104" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -14819,34 +14816,34 @@
         <v>28</v>
       </c>
       <c r="C60" s="107" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D60" s="104" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E60" s="104" t="s">
         <v>213</v>
       </c>
       <c r="F60" s="104" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G60" s="104">
         <v>75000</v>
       </c>
       <c r="H60" s="104" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I60" s="104" t="s">
+        <v>757</v>
+      </c>
+      <c r="J60" s="104" t="s">
+        <v>758</v>
+      </c>
+      <c r="K60" s="104" t="s">
         <v>759</v>
       </c>
-      <c r="J60" s="104" t="s">
+      <c r="L60" s="104" t="s">
         <v>760</v>
-      </c>
-      <c r="K60" s="104" t="s">
-        <v>761</v>
-      </c>
-      <c r="L60" s="104" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -14857,7 +14854,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="107" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D61" s="104" t="s">
         <v>349</v>
@@ -14866,7 +14863,7 @@
         <v>298</v>
       </c>
       <c r="F61" s="104" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G61" s="104">
         <v>74765</v>
@@ -14883,16 +14880,16 @@
         <v>28</v>
       </c>
       <c r="C62" s="107" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D62" s="104" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E62" s="104" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F62" s="104" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G62" s="104">
         <v>153805</v>
@@ -14901,13 +14898,13 @@
         <v>114</v>
       </c>
       <c r="I62" s="104" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J62" s="104" t="s">
         <v>329</v>
       </c>
       <c r="K62" s="104" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -14918,7 +14915,7 @@
         <v>28</v>
       </c>
       <c r="C63" s="107" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D63" s="104" t="s">
         <v>189</v>
@@ -14927,7 +14924,7 @@
         <v>87</v>
       </c>
       <c r="F63" s="104" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G63" s="104">
         <v>70084</v>
@@ -14947,28 +14944,28 @@
         <v>28</v>
       </c>
       <c r="C64" s="107" t="s">
+        <v>768</v>
+      </c>
+      <c r="D64" s="104" t="s">
+        <v>769</v>
+      </c>
+      <c r="E64" s="104" t="s">
         <v>770</v>
       </c>
-      <c r="D64" s="104" t="s">
+      <c r="F64" s="104" t="s">
         <v>771</v>
-      </c>
-      <c r="E64" s="104" t="s">
-        <v>772</v>
-      </c>
-      <c r="F64" s="104" t="s">
-        <v>773</v>
       </c>
       <c r="G64" s="104">
         <v>75000</v>
       </c>
       <c r="H64" s="104" t="s">
+        <v>772</v>
+      </c>
+      <c r="I64" s="104" t="s">
+        <v>773</v>
+      </c>
+      <c r="J64" s="104" t="s">
         <v>774</v>
-      </c>
-      <c r="I64" s="104" t="s">
-        <v>775</v>
-      </c>
-      <c r="J64" s="104" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -14979,16 +14976,16 @@
         <v>28</v>
       </c>
       <c r="C65" s="107" t="s">
+        <v>775</v>
+      </c>
+      <c r="D65" s="104" t="s">
+        <v>776</v>
+      </c>
+      <c r="E65" s="104" t="s">
         <v>777</v>
       </c>
-      <c r="D65" s="104" t="s">
+      <c r="F65" s="104" t="s">
         <v>778</v>
-      </c>
-      <c r="E65" s="104" t="s">
-        <v>779</v>
-      </c>
-      <c r="F65" s="104" t="s">
-        <v>780</v>
       </c>
       <c r="G65" s="104">
         <v>52640</v>
@@ -14997,7 +14994,7 @@
         <v>240</v>
       </c>
       <c r="I65" s="104" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -15008,7 +15005,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="107" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D66" s="104" t="s">
         <v>150</v>
@@ -15017,7 +15014,7 @@
         <v>284</v>
       </c>
       <c r="F66" s="104" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G66" s="104">
         <v>162571.4</v>
@@ -15031,25 +15028,25 @@
         <v>28</v>
       </c>
       <c r="C67" s="107" t="s">
+        <v>782</v>
+      </c>
+      <c r="D67" s="104" t="s">
+        <v>489</v>
+      </c>
+      <c r="E67" s="104" t="s">
+        <v>783</v>
+      </c>
+      <c r="F67" s="104" t="s">
         <v>784</v>
-      </c>
-      <c r="D67" s="104" t="s">
-        <v>491</v>
-      </c>
-      <c r="E67" s="104" t="s">
-        <v>785</v>
-      </c>
-      <c r="F67" s="104" t="s">
-        <v>786</v>
       </c>
       <c r="G67" s="104">
         <v>72618</v>
       </c>
       <c r="H67" s="104" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I67" s="104" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -15060,22 +15057,22 @@
         <v>28</v>
       </c>
       <c r="C68" s="107" t="s">
+        <v>787</v>
+      </c>
+      <c r="D68" s="104" t="s">
+        <v>788</v>
+      </c>
+      <c r="E68" s="104" t="s">
+        <v>477</v>
+      </c>
+      <c r="F68" s="104" t="s">
         <v>789</v>
-      </c>
-      <c r="D68" s="104" t="s">
-        <v>790</v>
-      </c>
-      <c r="E68" s="104" t="s">
-        <v>479</v>
-      </c>
-      <c r="F68" s="104" t="s">
-        <v>791</v>
       </c>
       <c r="G68" s="104">
         <v>127756.75</v>
       </c>
       <c r="H68" s="104" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -15086,37 +15083,37 @@
         <v>28</v>
       </c>
       <c r="C69" s="107" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D69" s="104" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E69" s="104" t="s">
         <v>118</v>
       </c>
       <c r="F69" s="104" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G69" s="104">
         <v>74802</v>
       </c>
       <c r="H69" s="104" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="I69" s="104" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="J69" s="104" t="s">
         <v>119</v>
       </c>
       <c r="K69" s="104" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="L69" s="104" t="s">
         <v>122</v>
       </c>
       <c r="M69" s="104" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -15127,28 +15124,28 @@
         <v>28</v>
       </c>
       <c r="C70" s="107" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D70" s="104" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E70" s="104" t="s">
         <v>119</v>
       </c>
       <c r="F70" s="104" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G70" s="104">
         <v>75000</v>
       </c>
       <c r="H70" s="104" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I70" s="104" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="J70" s="104" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -15159,22 +15156,22 @@
         <v>28</v>
       </c>
       <c r="C71" s="107" t="s">
+        <v>802</v>
+      </c>
+      <c r="D71" s="104" t="s">
+        <v>803</v>
+      </c>
+      <c r="E71" s="104" t="s">
+        <v>367</v>
+      </c>
+      <c r="F71" s="104" t="s">
         <v>804</v>
-      </c>
-      <c r="D71" s="104" t="s">
-        <v>805</v>
-      </c>
-      <c r="E71" s="104" t="s">
-        <v>368</v>
-      </c>
-      <c r="F71" s="104" t="s">
-        <v>806</v>
       </c>
       <c r="G71" s="104">
         <v>74998</v>
       </c>
       <c r="H71" s="104" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -15185,16 +15182,16 @@
         <v>28</v>
       </c>
       <c r="C72" s="107" t="s">
+        <v>806</v>
+      </c>
+      <c r="D72" s="104" t="s">
+        <v>807</v>
+      </c>
+      <c r="E72" s="104" t="s">
+        <v>429</v>
+      </c>
+      <c r="F72" s="104" t="s">
         <v>808</v>
-      </c>
-      <c r="D72" s="104" t="s">
-        <v>809</v>
-      </c>
-      <c r="E72" s="104" t="s">
-        <v>430</v>
-      </c>
-      <c r="F72" s="104" t="s">
-        <v>810</v>
       </c>
       <c r="G72" s="104">
         <v>68703</v>
@@ -15214,31 +15211,31 @@
         <v>28</v>
       </c>
       <c r="C73" s="107" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D73" s="104" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E73" s="104" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F73" s="104" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G73" s="104">
         <v>75000</v>
       </c>
       <c r="H73" s="104" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I73" s="104" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J73" s="104" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K73" s="104" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -15249,16 +15246,16 @@
         <v>28</v>
       </c>
       <c r="C74" s="107" t="s">
+        <v>812</v>
+      </c>
+      <c r="D74" s="104" t="s">
+        <v>813</v>
+      </c>
+      <c r="E74" s="104" t="s">
         <v>814</v>
       </c>
-      <c r="D74" s="104" t="s">
+      <c r="F74" s="104" t="s">
         <v>815</v>
-      </c>
-      <c r="E74" s="104" t="s">
-        <v>816</v>
-      </c>
-      <c r="F74" s="104" t="s">
-        <v>817</v>
       </c>
       <c r="G74" s="104">
         <v>75000</v>
@@ -15270,7 +15267,7 @@
         <v>119</v>
       </c>
       <c r="J74" s="104" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -15281,22 +15278,22 @@
         <v>28</v>
       </c>
       <c r="C75" s="107" t="s">
+        <v>816</v>
+      </c>
+      <c r="D75" s="104" t="s">
+        <v>817</v>
+      </c>
+      <c r="E75" s="104" t="s">
         <v>818</v>
       </c>
-      <c r="D75" s="104" t="s">
+      <c r="F75" s="104" t="s">
         <v>819</v>
-      </c>
-      <c r="E75" s="104" t="s">
-        <v>820</v>
-      </c>
-      <c r="F75" s="104" t="s">
-        <v>821</v>
       </c>
       <c r="G75" s="104">
         <v>33549</v>
       </c>
       <c r="H75" s="104" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -15307,31 +15304,31 @@
         <v>28</v>
       </c>
       <c r="C76" s="107" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D76" s="104" t="s">
         <v>85</v>
       </c>
       <c r="E76" s="104" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F76" s="104" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G76" s="104">
         <v>359539</v>
       </c>
       <c r="H76" s="104" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I76" s="104" t="s">
         <v>336</v>
       </c>
       <c r="J76" s="104" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K76" s="104" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -15342,16 +15339,16 @@
         <v>28</v>
       </c>
       <c r="C77" s="107" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D77" s="104" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E77" s="104" t="s">
         <v>159</v>
       </c>
       <c r="F77" s="104" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G77" s="104">
         <v>75000</v>
@@ -15371,22 +15368,22 @@
         <v>28</v>
       </c>
       <c r="C78" s="107" t="s">
+        <v>827</v>
+      </c>
+      <c r="D78" s="104" t="s">
+        <v>828</v>
+      </c>
+      <c r="E78" s="104" t="s">
+        <v>423</v>
+      </c>
+      <c r="F78" s="104" t="s">
         <v>829</v>
-      </c>
-      <c r="D78" s="104" t="s">
-        <v>830</v>
-      </c>
-      <c r="E78" s="104" t="s">
-        <v>424</v>
-      </c>
-      <c r="F78" s="104" t="s">
-        <v>831</v>
       </c>
       <c r="G78" s="104">
         <v>98275</v>
       </c>
       <c r="H78" s="104" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -15397,28 +15394,28 @@
         <v>28</v>
       </c>
       <c r="C79" s="107" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D79" s="104" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E79" s="104" t="s">
         <v>298</v>
       </c>
       <c r="F79" s="104" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G79" s="104">
         <v>69997.67</v>
       </c>
       <c r="H79" s="104" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I79" s="104" t="s">
         <v>146</v>
       </c>
       <c r="J79" s="104" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>
